--- a/output.xlsx
+++ b/output.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28429"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="202300"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F8E8BF23-A703-4E1D-892D-2B2F9725272B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0B090B8D-59CA-4136-B5B4-869BC17C96F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="59">
   <si>
     <t>Qui a attrapé le plus de Cobblemons ?</t>
   </si>
@@ -31,154 +31,160 @@
     <t>11.</t>
   </si>
   <si>
+    <t>Sky_ReyHD</t>
+  </si>
+  <si>
+    <t>21.</t>
+  </si>
+  <si>
+    <t>SyKape</t>
+  </si>
+  <si>
+    <t>2.</t>
+  </si>
+  <si>
+    <t>NightLight65</t>
+  </si>
+  <si>
+    <t>12.</t>
+  </si>
+  <si>
     <t>Bazouho</t>
   </si>
   <si>
-    <t>21.</t>
+    <t>22.</t>
   </si>
   <si>
     <t>AceCertix</t>
   </si>
   <si>
-    <t>2.</t>
+    <t>3.</t>
   </si>
   <si>
     <t>HeatleoDuster</t>
   </si>
   <si>
-    <t>12.</t>
+    <t>13.</t>
+  </si>
+  <si>
+    <t>Methyril</t>
+  </si>
+  <si>
+    <t>23.</t>
+  </si>
+  <si>
+    <t>Teubish</t>
+  </si>
+  <si>
+    <t>4.</t>
+  </si>
+  <si>
+    <t>Odhyn</t>
+  </si>
+  <si>
+    <t>14.</t>
+  </si>
+  <si>
+    <t>NeoPreda</t>
+  </si>
+  <si>
+    <t>24.</t>
+  </si>
+  <si>
+    <t>ArtocxFr</t>
+  </si>
+  <si>
+    <t>5.</t>
+  </si>
+  <si>
+    <t>Azufinn</t>
+  </si>
+  <si>
+    <t>15.</t>
+  </si>
+  <si>
+    <t>Le_willl</t>
+  </si>
+  <si>
+    <t>25.</t>
+  </si>
+  <si>
+    <t>AlkaciD</t>
+  </si>
+  <si>
+    <t>6.</t>
+  </si>
+  <si>
+    <t>FunBass</t>
+  </si>
+  <si>
+    <t>16.</t>
+  </si>
+  <si>
+    <t>Arpegiuss</t>
+  </si>
+  <si>
+    <t>26.</t>
+  </si>
+  <si>
+    <t>SnowGeek_</t>
+  </si>
+  <si>
+    <t>7.</t>
+  </si>
+  <si>
+    <t>Eniox_0</t>
+  </si>
+  <si>
+    <t>17.</t>
+  </si>
+  <si>
+    <t>FirFlaSh</t>
+  </si>
+  <si>
+    <t>27.</t>
+  </si>
+  <si>
+    <t>Lutjio</t>
+  </si>
+  <si>
+    <t>8.</t>
+  </si>
+  <si>
+    <t>Framex74</t>
+  </si>
+  <si>
+    <t>18.</t>
+  </si>
+  <si>
+    <t>Swqsh</t>
+  </si>
+  <si>
+    <t>9.</t>
+  </si>
+  <si>
+    <t>Adri3n76</t>
+  </si>
+  <si>
+    <t>19.</t>
+  </si>
+  <si>
+    <t>Otachisaburi</t>
+  </si>
+  <si>
+    <t>10.</t>
   </si>
   <si>
     <t>ashbee404</t>
   </si>
   <si>
-    <t>22.</t>
-  </si>
-  <si>
-    <t>ArtocxFr</t>
-  </si>
-  <si>
-    <t>3.</t>
-  </si>
-  <si>
-    <t>NightLight65</t>
-  </si>
-  <si>
-    <t>13.</t>
-  </si>
-  <si>
-    <t>Methyril</t>
-  </si>
-  <si>
-    <t>23.</t>
-  </si>
-  <si>
-    <t>AlkaciD</t>
-  </si>
-  <si>
-    <t>4.</t>
-  </si>
-  <si>
-    <t>Eniox_0</t>
-  </si>
-  <si>
-    <t>14.</t>
-  </si>
-  <si>
-    <t>Le_willl</t>
-  </si>
-  <si>
-    <t>24.</t>
-  </si>
-  <si>
-    <t>Teubish</t>
-  </si>
-  <si>
-    <t>5.</t>
-  </si>
-  <si>
-    <t>Framex74</t>
-  </si>
-  <si>
-    <t>15.</t>
-  </si>
-  <si>
-    <t>Odhyn</t>
-  </si>
-  <si>
-    <t>25.</t>
-  </si>
-  <si>
-    <t>Lutjio</t>
-  </si>
-  <si>
-    <t>6.</t>
-  </si>
-  <si>
-    <t>FunBass</t>
-  </si>
-  <si>
-    <t>16.</t>
-  </si>
-  <si>
-    <t>Arpegiuss</t>
-  </si>
-  <si>
-    <t>26.</t>
-  </si>
-  <si>
-    <t>SnowGeek_</t>
-  </si>
-  <si>
-    <t>7.</t>
-  </si>
-  <si>
-    <t>NeoPreda</t>
-  </si>
-  <si>
-    <t>17.</t>
-  </si>
-  <si>
-    <t>FirFlaSh</t>
-  </si>
-  <si>
-    <t>8.</t>
-  </si>
-  <si>
-    <t>Azufinn</t>
-  </si>
-  <si>
-    <t>18.</t>
-  </si>
-  <si>
-    <t>Swqsh</t>
-  </si>
-  <si>
-    <t>9.</t>
-  </si>
-  <si>
-    <t>Adri3n76</t>
-  </si>
-  <si>
-    <t>19.</t>
+    <t>20.</t>
   </si>
   <si>
     <t>oluvilis</t>
   </si>
   <si>
-    <t>10.</t>
-  </si>
-  <si>
-    <t>Sky_ReyHD</t>
-  </si>
-  <si>
-    <t>20.</t>
-  </si>
-  <si>
-    <t>SyKape</t>
-  </si>
-  <si>
-    <t>Dernière update le 22.02.25 à 19:58</t>
+    <t>Dernière update le 22.02.25 à 22:22</t>
   </si>
   <si>
     <t>Most Pokemons Captured</t>
@@ -949,7 +955,7 @@
         <v>2</v>
       </c>
       <c r="D3" s="5">
-        <v>239</v>
+        <v>410</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>3</v>
@@ -958,7 +964,7 @@
         <v>4</v>
       </c>
       <c r="G3" s="7">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="H3" s="8" t="s">
         <v>5</v>
@@ -967,7 +973,7 @@
         <v>6</v>
       </c>
       <c r="J3" s="10">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="K3" s="6"/>
       <c r="L3" s="7"/>
@@ -983,7 +989,7 @@
         <v>8</v>
       </c>
       <c r="D4" s="13">
-        <v>175</v>
+        <v>290</v>
       </c>
       <c r="E4" s="14" t="s">
         <v>9</v>
@@ -992,7 +998,7 @@
         <v>10</v>
       </c>
       <c r="G4" s="15">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H4" s="16" t="s">
         <v>11</v>
@@ -1001,7 +1007,7 @@
         <v>12</v>
       </c>
       <c r="J4" s="17">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="K4" s="14"/>
       <c r="L4" s="15"/>
@@ -1017,7 +1023,7 @@
         <v>14</v>
       </c>
       <c r="D5" s="20">
-        <v>134</v>
+        <v>282</v>
       </c>
       <c r="E5" s="6" t="s">
         <v>15</v>
@@ -1026,7 +1032,7 @@
         <v>16</v>
       </c>
       <c r="G5" s="7">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H5" s="21" t="s">
         <v>17</v>
@@ -1035,7 +1041,7 @@
         <v>18</v>
       </c>
       <c r="J5" s="22">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="K5" s="6"/>
       <c r="L5" s="7"/>
@@ -1051,7 +1057,7 @@
         <v>20</v>
       </c>
       <c r="D6" s="17">
-        <v>131</v>
+        <v>191</v>
       </c>
       <c r="E6" s="14" t="s">
         <v>21</v>
@@ -1060,7 +1066,7 @@
         <v>22</v>
       </c>
       <c r="G6" s="15">
-        <v>74</v>
+        <v>87</v>
       </c>
       <c r="H6" s="16" t="s">
         <v>23</v>
@@ -1069,7 +1075,7 @@
         <v>24</v>
       </c>
       <c r="J6" s="17">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="K6" s="14"/>
       <c r="L6" s="15"/>
@@ -1085,7 +1091,7 @@
         <v>26</v>
       </c>
       <c r="D7" s="22">
-        <v>127</v>
+        <v>168</v>
       </c>
       <c r="E7" s="6" t="s">
         <v>27</v>
@@ -1094,7 +1100,7 @@
         <v>28</v>
       </c>
       <c r="G7" s="7">
-        <v>65</v>
+        <v>79</v>
       </c>
       <c r="H7" s="21" t="s">
         <v>29</v>
@@ -1103,7 +1109,7 @@
         <v>30</v>
       </c>
       <c r="J7" s="22">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K7" s="6"/>
       <c r="L7" s="7"/>
@@ -1119,7 +1125,7 @@
         <v>32</v>
       </c>
       <c r="D8" s="17">
-        <v>114</v>
+        <v>159</v>
       </c>
       <c r="E8" s="14" t="s">
         <v>33</v>
@@ -1128,7 +1134,7 @@
         <v>34</v>
       </c>
       <c r="G8" s="15">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="H8" s="16" t="s">
         <v>35</v>
@@ -1137,7 +1143,7 @@
         <v>36</v>
       </c>
       <c r="J8" s="17">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K8" s="14"/>
       <c r="L8" s="15"/>
@@ -1153,7 +1159,7 @@
         <v>38</v>
       </c>
       <c r="D9" s="22">
-        <v>107</v>
+        <v>151</v>
       </c>
       <c r="E9" s="6" t="s">
         <v>39</v>
@@ -1162,11 +1168,17 @@
         <v>40</v>
       </c>
       <c r="G9" s="7">
-        <v>22</v>
-      </c>
-      <c r="H9" s="21"/>
-      <c r="I9" s="7"/>
-      <c r="J9" s="22"/>
+        <v>38</v>
+      </c>
+      <c r="H9" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="I9" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="J9" s="22">
+        <v>2</v>
+      </c>
       <c r="K9" s="6"/>
       <c r="L9" s="7"/>
       <c r="M9" s="7"/>
@@ -1176,22 +1188,22 @@
     <row r="10" spans="1:17" ht="37.35" customHeight="1">
       <c r="A10" s="2"/>
       <c r="B10" s="16" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D10" s="17">
-        <v>106</v>
+        <v>119</v>
       </c>
       <c r="E10" s="14" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F10" s="15" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G10" s="15">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="H10" s="16"/>
       <c r="I10" s="15"/>
@@ -1204,22 +1216,22 @@
     <row r="11" spans="1:17" ht="37.35" customHeight="1">
       <c r="A11" s="2"/>
       <c r="B11" s="21" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D11" s="22">
         <v>103</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="G11" s="7">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="H11" s="21"/>
       <c r="I11" s="7"/>
@@ -1232,22 +1244,22 @@
     <row r="12" spans="1:17" ht="37.35" customHeight="1">
       <c r="A12" s="2"/>
       <c r="B12" s="16" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C12" s="15" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D12" s="17">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="E12" s="14" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F12" s="15" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="G12" s="15">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="H12" s="16"/>
       <c r="I12" s="15"/>
@@ -1260,7 +1272,7 @@
     <row r="13" spans="1:17" ht="23.85" customHeight="1">
       <c r="A13" s="2"/>
       <c r="B13" s="37" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C13" s="37"/>
       <c r="D13" s="37"/>
@@ -1278,7 +1290,7 @@
     <row r="14" spans="1:17" ht="19.350000000000001" customHeight="1">
       <c r="A14" s="2"/>
       <c r="B14" s="38" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C14" s="38"/>
       <c r="D14" s="38"/>
@@ -1327,7 +1339,7 @@
   <dimension ref="A1:Q1048576"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.19921875" defaultRowHeight="13.8" customHeight="1"/>
@@ -1367,7 +1379,7 @@
     <row r="2" spans="1:17" ht="83.55" customHeight="1">
       <c r="A2" s="24"/>
       <c r="B2" s="39" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C2" s="39"/>
       <c r="D2" s="39"/>
@@ -1388,16 +1400,16 @@
         <v>1</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D3" s="5">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E3" s="25" t="s">
         <v>3</v>
       </c>
       <c r="F3" s="26" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="G3" s="26">
         <v>2</v>
@@ -1406,7 +1418,7 @@
         <v>5</v>
       </c>
       <c r="I3" s="28" t="s">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="J3" s="29">
         <v>0</v>
@@ -1422,25 +1434,25 @@
         <v>7</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D4" s="13">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="E4" s="30" t="s">
         <v>9</v>
       </c>
       <c r="F4" s="31" t="s">
-        <v>4</v>
+        <v>48</v>
       </c>
       <c r="G4" s="31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H4" s="32" t="s">
         <v>11</v>
       </c>
       <c r="I4" s="31" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="J4" s="33">
         <v>0</v>
@@ -1459,13 +1471,13 @@
         <v>8</v>
       </c>
       <c r="D5" s="20">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="E5" s="25" t="s">
         <v>15</v>
       </c>
       <c r="F5" s="26" t="s">
-        <v>34</v>
+        <v>10</v>
       </c>
       <c r="G5" s="26">
         <v>1</v>
@@ -1474,7 +1486,7 @@
         <v>17</v>
       </c>
       <c r="I5" s="26" t="s">
-        <v>50</v>
+        <v>6</v>
       </c>
       <c r="J5" s="35">
         <v>0</v>
@@ -1490,16 +1502,16 @@
         <v>19</v>
       </c>
       <c r="C6" s="31" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="D6" s="33">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E6" s="30" t="s">
         <v>21</v>
       </c>
       <c r="F6" s="31" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="G6" s="31">
         <v>1</v>
@@ -1508,7 +1520,7 @@
         <v>23</v>
       </c>
       <c r="I6" s="31" t="s">
-        <v>36</v>
+        <v>4</v>
       </c>
       <c r="J6" s="33">
         <v>0</v>
@@ -1524,16 +1536,16 @@
         <v>25</v>
       </c>
       <c r="C7" s="26" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="D7" s="35">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E7" s="25" t="s">
         <v>27</v>
       </c>
       <c r="F7" s="26" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="G7" s="26">
         <v>1</v>
@@ -1542,7 +1554,7 @@
         <v>29</v>
       </c>
       <c r="I7" s="26" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="J7" s="35">
         <v>0</v>
@@ -1558,25 +1570,25 @@
         <v>31</v>
       </c>
       <c r="C8" s="31" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="D8" s="33">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E8" s="30" t="s">
         <v>33</v>
       </c>
       <c r="F8" s="31" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G8" s="31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H8" s="32" t="s">
         <v>35</v>
       </c>
       <c r="I8" s="31" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="J8" s="33">
         <v>0</v>
@@ -1592,23 +1604,29 @@
         <v>37</v>
       </c>
       <c r="C9" s="26" t="s">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="D9" s="35">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E9" s="25" t="s">
         <v>39</v>
       </c>
       <c r="F9" s="26" t="s">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="G9" s="26">
         <v>0</v>
       </c>
-      <c r="H9" s="34"/>
-      <c r="I9" s="26"/>
-      <c r="J9" s="35"/>
+      <c r="H9" s="34" t="s">
+        <v>41</v>
+      </c>
+      <c r="I9" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="J9" s="35">
+        <v>0</v>
+      </c>
       <c r="K9" s="25"/>
       <c r="L9" s="26"/>
       <c r="M9" s="26"/>
@@ -1618,19 +1636,19 @@
     <row r="10" spans="1:17" ht="37.35" customHeight="1">
       <c r="A10" s="24"/>
       <c r="B10" s="32" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C10" s="31" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D10" s="33">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E10" s="30" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F10" s="31" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="G10" s="31">
         <v>0</v>
@@ -1646,19 +1664,19 @@
     <row r="11" spans="1:17" ht="37.35" customHeight="1">
       <c r="A11" s="24"/>
       <c r="B11" s="34" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C11" s="26" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="D11" s="35">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E11" s="25" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F11" s="26" t="s">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="G11" s="26">
         <v>0</v>
@@ -1674,16 +1692,16 @@
     <row r="12" spans="1:17" ht="37.35" customHeight="1">
       <c r="A12" s="24"/>
       <c r="B12" s="32" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C12" s="31" t="s">
         <v>32</v>
       </c>
       <c r="D12" s="33">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E12" s="30" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F12" s="31" t="s">
         <v>30</v>
@@ -1702,7 +1720,7 @@
     <row r="13" spans="1:17" ht="23.85" customHeight="1">
       <c r="A13" s="24"/>
       <c r="B13" s="40" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C13" s="40"/>
       <c r="D13" s="40"/>
@@ -1720,7 +1738,7 @@
     <row r="14" spans="1:17" ht="19.350000000000001" customHeight="1">
       <c r="A14" s="24"/>
       <c r="B14" s="41" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C14" s="41"/>
       <c r="D14" s="41"/>

--- a/output.xlsx
+++ b/output.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="81">
   <si>
     <t>Qui a attrapé le plus de Cobblemons ?</t>
   </si>
@@ -25,184 +25,184 @@
     <t>1.</t>
   </si>
   <si>
+    <t>NightLight65</t>
+  </si>
+  <si>
+    <t>11.</t>
+  </si>
+  <si>
+    <t>Methyril</t>
+  </si>
+  <si>
+    <t>21.</t>
+  </si>
+  <si>
+    <t>Banamas_</t>
+  </si>
+  <si>
+    <t>2.</t>
+  </si>
+  <si>
     <t>NekaiElDog</t>
   </si>
   <si>
-    <t>11.</t>
+    <t>12.</t>
+  </si>
+  <si>
+    <t>Le_willl</t>
+  </si>
+  <si>
+    <t>22.</t>
+  </si>
+  <si>
+    <t>oluvilis</t>
+  </si>
+  <si>
+    <t>3.</t>
+  </si>
+  <si>
+    <t>HeatleoDuster</t>
+  </si>
+  <si>
+    <t>13.</t>
+  </si>
+  <si>
+    <t>Otachisaburi</t>
+  </si>
+  <si>
+    <t>23.</t>
+  </si>
+  <si>
+    <t>Xtrem_lalaniix</t>
+  </si>
+  <si>
+    <t>4.</t>
+  </si>
+  <si>
+    <t>Odhyn</t>
+  </si>
+  <si>
+    <t>14.</t>
   </si>
   <si>
     <t>Framex74</t>
   </si>
   <si>
-    <t>21.</t>
+    <t>24.</t>
+  </si>
+  <si>
+    <t>Arpegiuss</t>
+  </si>
+  <si>
+    <t>5.</t>
+  </si>
+  <si>
+    <t>Azufinn</t>
+  </si>
+  <si>
+    <t>15.</t>
+  </si>
+  <si>
+    <t>NeoPreda</t>
+  </si>
+  <si>
+    <t>25.</t>
+  </si>
+  <si>
+    <t>Thomsondu45</t>
+  </si>
+  <si>
+    <t>6.</t>
+  </si>
+  <si>
+    <t>Eniox_0</t>
+  </si>
+  <si>
+    <t>16.</t>
+  </si>
+  <si>
+    <t>Sky_ReyHD</t>
+  </si>
+  <si>
+    <t>26.</t>
+  </si>
+  <si>
+    <t>Freeze_zaeyo_</t>
+  </si>
+  <si>
+    <t>7.</t>
+  </si>
+  <si>
+    <t>FunBass</t>
+  </si>
+  <si>
+    <t>17.</t>
+  </si>
+  <si>
+    <t>SyKape</t>
+  </si>
+  <si>
+    <t>27.</t>
+  </si>
+  <si>
+    <t>Dilag</t>
+  </si>
+  <si>
+    <t>8.</t>
+  </si>
+  <si>
+    <t>Adri3n76</t>
+  </si>
+  <si>
+    <t>18.</t>
+  </si>
+  <si>
+    <t>Swqsh</t>
+  </si>
+  <si>
+    <t>28.</t>
+  </si>
+  <si>
+    <t>RevengeGoon</t>
+  </si>
+  <si>
+    <t>9.</t>
+  </si>
+  <si>
+    <t>ashbee404</t>
+  </si>
+  <si>
+    <t>19.</t>
+  </si>
+  <si>
+    <t>AceCertix</t>
+  </si>
+  <si>
+    <t>29.</t>
+  </si>
+  <si>
+    <t>Elestiano</t>
+  </si>
+  <si>
+    <t>10.</t>
+  </si>
+  <si>
+    <t>Bazouho</t>
+  </si>
+  <si>
+    <t>20.</t>
+  </si>
+  <si>
+    <t>FirFlaSh</t>
+  </si>
+  <si>
+    <t>30.</t>
   </si>
   <si>
     <t>Teubish</t>
   </si>
   <si>
-    <t>2.</t>
-  </si>
-  <si>
-    <t>NightLight65</t>
-  </si>
-  <si>
-    <t>12.</t>
-  </si>
-  <si>
-    <t>Otachisaburi</t>
-  </si>
-  <si>
-    <t>22.</t>
-  </si>
-  <si>
-    <t>Swqsh</t>
-  </si>
-  <si>
-    <t>3.</t>
-  </si>
-  <si>
-    <t>HeatleoDuster</t>
-  </si>
-  <si>
-    <t>13.</t>
-  </si>
-  <si>
-    <t>NeoPreda</t>
-  </si>
-  <si>
-    <t>23.</t>
-  </si>
-  <si>
-    <t>Balhgar</t>
-  </si>
-  <si>
-    <t>4.</t>
-  </si>
-  <si>
-    <t>Odhyn</t>
-  </si>
-  <si>
-    <t>14.</t>
-  </si>
-  <si>
-    <t>Sky_ReyHD</t>
-  </si>
-  <si>
-    <t>24.</t>
-  </si>
-  <si>
-    <t>Pyrocika</t>
-  </si>
-  <si>
-    <t>5.</t>
-  </si>
-  <si>
-    <t>Azufinn</t>
-  </si>
-  <si>
-    <t>15.</t>
-  </si>
-  <si>
-    <t>Methyril</t>
-  </si>
-  <si>
-    <t>25.</t>
-  </si>
-  <si>
-    <t>Aestoxic</t>
-  </si>
-  <si>
-    <t>6.</t>
-  </si>
-  <si>
-    <t>Eniox_0</t>
-  </si>
-  <si>
-    <t>16.</t>
-  </si>
-  <si>
-    <t>Le_willl</t>
-  </si>
-  <si>
-    <t>26.</t>
-  </si>
-  <si>
-    <t>AceCertix</t>
-  </si>
-  <si>
-    <t>7.</t>
-  </si>
-  <si>
-    <t>FunBass</t>
-  </si>
-  <si>
-    <t>17.</t>
-  </si>
-  <si>
-    <t>FirFlaSh</t>
-  </si>
-  <si>
-    <t>27.</t>
-  </si>
-  <si>
-    <t>oluvilis</t>
-  </si>
-  <si>
-    <t>8.</t>
-  </si>
-  <si>
-    <t>Bazouho</t>
-  </si>
-  <si>
-    <t>18.</t>
-  </si>
-  <si>
-    <t>Arpegiuss</t>
-  </si>
-  <si>
-    <t>28.</t>
-  </si>
-  <si>
-    <t>Mamazou</t>
-  </si>
-  <si>
-    <t>9.</t>
-  </si>
-  <si>
-    <t>ashbee404</t>
-  </si>
-  <si>
-    <t>19.</t>
-  </si>
-  <si>
-    <t>SyKape</t>
-  </si>
-  <si>
-    <t>29.</t>
-  </si>
-  <si>
-    <t>Lenny_san</t>
-  </si>
-  <si>
-    <t>10.</t>
-  </si>
-  <si>
-    <t>Adri3n76</t>
-  </si>
-  <si>
-    <t>20.</t>
-  </si>
-  <si>
-    <t>Xtrem_lalaniix</t>
-  </si>
-  <si>
-    <t>30.</t>
-  </si>
-  <si>
-    <t>BillyHck</t>
-  </si>
-  <si>
-    <t>Dernière update le 23.02.25 à 19:51</t>
+    <t>Dernière update le 24.02.25 à 20:13</t>
   </si>
   <si>
     <t>Most Pokemons Captured</t>
@@ -243,13 +243,28 @@
     </r>
   </si>
   <si>
-    <t>AlkaciD</t>
-  </si>
-  <si>
     <t>Lutjio</t>
   </si>
   <si>
     <t>AxoliaTV</t>
+  </si>
+  <si>
+    <t>De_Oceane</t>
+  </si>
+  <si>
+    <t>buderacing</t>
+  </si>
+  <si>
+    <t>Pyrocika</t>
+  </si>
+  <si>
+    <t>Balhgar</t>
+  </si>
+  <si>
+    <t>Mamazou</t>
+  </si>
+  <si>
+    <t>Lenny_san</t>
   </si>
   <si>
     <t>Shiny Pokemons Leaderboard</t>
@@ -278,6 +293,12 @@
       </rPr>
       <t>?</t>
     </r>
+  </si>
+  <si>
+    <t>AlkaciD</t>
+  </si>
+  <si>
+    <t>BillyHck</t>
   </si>
   <si>
     <t>Legendary Captures Leaderboard</t>
@@ -999,7 +1020,7 @@
         <v>2</v>
       </c>
       <c r="D3" s="5">
-        <v>485</v>
+        <v>538</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>3</v>
@@ -1008,7 +1029,7 @@
         <v>4</v>
       </c>
       <c r="G3" s="7">
-        <v>119</v>
+        <v>148</v>
       </c>
       <c r="H3" s="8" t="s">
         <v>5</v>
@@ -1017,7 +1038,7 @@
         <v>6</v>
       </c>
       <c r="J3" s="10">
-        <v>26</v>
+        <v>53</v>
       </c>
       <c r="K3" s="6"/>
       <c r="L3" s="7"/>
@@ -1033,7 +1054,7 @@
         <v>8</v>
       </c>
       <c r="D4" s="13">
-        <v>454</v>
+        <v>519</v>
       </c>
       <c r="E4" s="14" t="s">
         <v>9</v>
@@ -1042,7 +1063,7 @@
         <v>10</v>
       </c>
       <c r="G4" s="15">
-        <v>111</v>
+        <v>148</v>
       </c>
       <c r="H4" s="16" t="s">
         <v>11</v>
@@ -1051,7 +1072,7 @@
         <v>12</v>
       </c>
       <c r="J4" s="17">
-        <v>25</v>
+        <v>47</v>
       </c>
       <c r="K4" s="14"/>
       <c r="L4" s="15"/>
@@ -1067,7 +1088,7 @@
         <v>14</v>
       </c>
       <c r="D5" s="20">
-        <v>382</v>
+        <v>471</v>
       </c>
       <c r="E5" s="6" t="s">
         <v>15</v>
@@ -1076,7 +1097,7 @@
         <v>16</v>
       </c>
       <c r="G5" s="7">
-        <v>104</v>
+        <v>145</v>
       </c>
       <c r="H5" s="21" t="s">
         <v>17</v>
@@ -1085,7 +1106,7 @@
         <v>18</v>
       </c>
       <c r="J5" s="22">
-        <v>23</v>
+        <v>47</v>
       </c>
       <c r="K5" s="6"/>
       <c r="L5" s="7"/>
@@ -1101,7 +1122,7 @@
         <v>20</v>
       </c>
       <c r="D6" s="17">
-        <v>356</v>
+        <v>382</v>
       </c>
       <c r="E6" s="14" t="s">
         <v>21</v>
@@ -1110,7 +1131,7 @@
         <v>22</v>
       </c>
       <c r="G6" s="15">
-        <v>101</v>
+        <v>119</v>
       </c>
       <c r="H6" s="16" t="s">
         <v>23</v>
@@ -1119,7 +1140,7 @@
         <v>24</v>
       </c>
       <c r="J6" s="17">
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="K6" s="14"/>
       <c r="L6" s="15"/>
@@ -1135,7 +1156,7 @@
         <v>26</v>
       </c>
       <c r="D7" s="22">
-        <v>304</v>
+        <v>378</v>
       </c>
       <c r="E7" s="6" t="s">
         <v>27</v>
@@ -1144,7 +1165,7 @@
         <v>28</v>
       </c>
       <c r="G7" s="7">
-        <v>87</v>
+        <v>112</v>
       </c>
       <c r="H7" s="21" t="s">
         <v>29</v>
@@ -1153,7 +1174,7 @@
         <v>30</v>
       </c>
       <c r="J7" s="22">
-        <v>17</v>
+        <v>44</v>
       </c>
       <c r="K7" s="6"/>
       <c r="L7" s="7"/>
@@ -1169,7 +1190,7 @@
         <v>32</v>
       </c>
       <c r="D8" s="17">
-        <v>219</v>
+        <v>250</v>
       </c>
       <c r="E8" s="14" t="s">
         <v>33</v>
@@ -1178,7 +1199,7 @@
         <v>34</v>
       </c>
       <c r="G8" s="15">
-        <v>82</v>
+        <v>108</v>
       </c>
       <c r="H8" s="16" t="s">
         <v>35</v>
@@ -1187,7 +1208,7 @@
         <v>36</v>
       </c>
       <c r="J8" s="17">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="K8" s="14"/>
       <c r="L8" s="15"/>
@@ -1203,7 +1224,7 @@
         <v>38</v>
       </c>
       <c r="D9" s="22">
-        <v>205</v>
+        <v>228</v>
       </c>
       <c r="E9" s="6" t="s">
         <v>39</v>
@@ -1212,7 +1233,7 @@
         <v>40</v>
       </c>
       <c r="G9" s="7">
-        <v>56</v>
+        <v>86</v>
       </c>
       <c r="H9" s="21" t="s">
         <v>41</v>
@@ -1221,7 +1242,7 @@
         <v>42</v>
       </c>
       <c r="J9" s="22">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="K9" s="6"/>
       <c r="L9" s="7"/>
@@ -1238,7 +1259,7 @@
         <v>44</v>
       </c>
       <c r="D10" s="17">
-        <v>171</v>
+        <v>217</v>
       </c>
       <c r="E10" s="14" t="s">
         <v>45</v>
@@ -1247,7 +1268,7 @@
         <v>46</v>
       </c>
       <c r="G10" s="15">
-        <v>46</v>
+        <v>82</v>
       </c>
       <c r="H10" s="16" t="s">
         <v>47</v>
@@ -1256,7 +1277,7 @@
         <v>48</v>
       </c>
       <c r="J10" s="17">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="K10" s="14"/>
       <c r="L10" s="15"/>
@@ -1272,7 +1293,7 @@
         <v>50</v>
       </c>
       <c r="D11" s="22">
-        <v>147</v>
+        <v>187</v>
       </c>
       <c r="E11" s="6" t="s">
         <v>51</v>
@@ -1281,7 +1302,7 @@
         <v>52</v>
       </c>
       <c r="G11" s="7">
-        <v>41</v>
+        <v>63</v>
       </c>
       <c r="H11" s="21" t="s">
         <v>53</v>
@@ -1290,7 +1311,7 @@
         <v>54</v>
       </c>
       <c r="J11" s="22">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="K11" s="6"/>
       <c r="L11" s="7"/>
@@ -1306,7 +1327,7 @@
         <v>56</v>
       </c>
       <c r="D12" s="17">
-        <v>120</v>
+        <v>185</v>
       </c>
       <c r="E12" s="14" t="s">
         <v>57</v>
@@ -1315,7 +1336,7 @@
         <v>58</v>
       </c>
       <c r="G12" s="15">
-        <v>33</v>
+        <v>56</v>
       </c>
       <c r="H12" s="16" t="s">
         <v>59</v>
@@ -1324,7 +1345,7 @@
         <v>60</v>
       </c>
       <c r="J12" s="17">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="K12" s="14"/>
       <c r="L12" s="15"/>
@@ -1465,25 +1486,25 @@
         <v>2</v>
       </c>
       <c r="D3" s="5">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="E3" s="28" t="s">
         <v>3</v>
       </c>
       <c r="F3" s="29" t="s">
-        <v>10</v>
+        <v>64</v>
       </c>
       <c r="G3" s="29">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="H3" s="30" t="s">
         <v>5</v>
       </c>
       <c r="I3" s="31" t="s">
-        <v>54</v>
+        <v>32</v>
       </c>
       <c r="J3" s="32">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K3" s="28"/>
       <c r="L3" s="29"/>
@@ -1499,25 +1520,25 @@
         <v>8</v>
       </c>
       <c r="D4" s="13">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="E4" s="33" t="s">
         <v>9</v>
       </c>
       <c r="F4" s="34" t="s">
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="G4" s="34">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H4" s="35" t="s">
         <v>11</v>
       </c>
       <c r="I4" s="34" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="J4" s="36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K4" s="33"/>
       <c r="L4" s="34"/>
@@ -1533,25 +1554,25 @@
         <v>14</v>
       </c>
       <c r="D5" s="20">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="E5" s="28" t="s">
         <v>15</v>
       </c>
       <c r="F5" s="29" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="G5" s="29">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H5" s="37" t="s">
         <v>17</v>
       </c>
       <c r="I5" s="29" t="s">
-        <v>4</v>
+        <v>65</v>
       </c>
       <c r="J5" s="38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K5" s="28"/>
       <c r="L5" s="29"/>
@@ -1567,25 +1588,25 @@
         <v>26</v>
       </c>
       <c r="D6" s="36">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="E6" s="33" t="s">
         <v>21</v>
       </c>
       <c r="F6" s="34" t="s">
-        <v>32</v>
+        <v>66</v>
       </c>
       <c r="G6" s="34">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H6" s="35" t="s">
         <v>23</v>
       </c>
       <c r="I6" s="34" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="J6" s="36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K6" s="33"/>
       <c r="L6" s="34"/>
@@ -1598,28 +1619,28 @@
         <v>25</v>
       </c>
       <c r="C7" s="29" t="s">
-        <v>16</v>
+        <v>50</v>
       </c>
       <c r="D7" s="38">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="E7" s="28" t="s">
         <v>27</v>
       </c>
       <c r="F7" s="29" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="G7" s="29">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H7" s="37" t="s">
         <v>29</v>
       </c>
       <c r="I7" s="29" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="J7" s="38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K7" s="28"/>
       <c r="L7" s="29"/>
@@ -1632,28 +1653,28 @@
         <v>31</v>
       </c>
       <c r="C8" s="34" t="s">
-        <v>50</v>
+        <v>16</v>
       </c>
       <c r="D8" s="36">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E8" s="33" t="s">
         <v>33</v>
       </c>
       <c r="F8" s="34" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="G8" s="34">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H8" s="35" t="s">
         <v>35</v>
       </c>
       <c r="I8" s="34" t="s">
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="J8" s="36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K8" s="33"/>
       <c r="L8" s="34"/>
@@ -1666,28 +1687,28 @@
         <v>37</v>
       </c>
       <c r="C9" s="29" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="D9" s="38">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E9" s="28" t="s">
         <v>39</v>
       </c>
       <c r="F9" s="29" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="G9" s="29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H9" s="37" t="s">
         <v>41</v>
       </c>
       <c r="I9" s="29" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="J9" s="38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K9" s="28"/>
       <c r="L9" s="29"/>
@@ -1701,25 +1722,25 @@
         <v>43</v>
       </c>
       <c r="C10" s="34" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D10" s="36">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E10" s="33" t="s">
         <v>45</v>
       </c>
       <c r="F10" s="34" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G10" s="34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H10" s="35" t="s">
         <v>47</v>
       </c>
       <c r="I10" s="34" t="s">
-        <v>24</v>
+        <v>70</v>
       </c>
       <c r="J10" s="36">
         <v>0</v>
@@ -1735,25 +1756,25 @@
         <v>49</v>
       </c>
       <c r="C11" s="29" t="s">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="D11" s="38">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E11" s="28" t="s">
         <v>51</v>
       </c>
       <c r="F11" s="29" t="s">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="G11" s="29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H11" s="37" t="s">
         <v>53</v>
       </c>
       <c r="I11" s="29" t="s">
-        <v>34</v>
+        <v>71</v>
       </c>
       <c r="J11" s="38">
         <v>0</v>
@@ -1772,22 +1793,22 @@
         <v>12</v>
       </c>
       <c r="D12" s="36">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E12" s="33" t="s">
         <v>57</v>
       </c>
       <c r="F12" s="34" t="s">
-        <v>48</v>
+        <v>6</v>
       </c>
       <c r="G12" s="34">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H12" s="35" t="s">
         <v>59</v>
       </c>
       <c r="I12" s="34" t="s">
-        <v>30</v>
+        <v>4</v>
       </c>
       <c r="J12" s="36">
         <v>0</v>
@@ -1818,7 +1839,7 @@
     <row r="14" ht="19.35" customHeight="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="26"/>
       <c r="B14" s="40" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="C14" s="40"/>
       <c r="D14" s="40"/>
@@ -1907,7 +1928,7 @@
     <row r="2" ht="83.55" customHeight="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="2" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
@@ -1928,28 +1949,28 @@
         <v>1</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D3" s="5">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>3</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>44</v>
+        <v>70</v>
       </c>
       <c r="G3" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H3" s="8" t="s">
         <v>5</v>
       </c>
       <c r="I3" s="9" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J3" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K3" s="6"/>
       <c r="L3" s="7"/>
@@ -1965,22 +1986,22 @@
         <v>14</v>
       </c>
       <c r="D4" s="13">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="E4" s="14" t="s">
         <v>9</v>
       </c>
       <c r="F4" s="15" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="G4" s="15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H4" s="16" t="s">
         <v>11</v>
       </c>
       <c r="I4" s="15" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="J4" s="17">
         <v>0</v>
@@ -1999,22 +2020,22 @@
         <v>26</v>
       </c>
       <c r="D5" s="20">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E5" s="6" t="s">
         <v>15</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>10</v>
+        <v>52</v>
       </c>
       <c r="G5" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H5" s="21" t="s">
         <v>17</v>
       </c>
       <c r="I5" s="7" t="s">
-        <v>58</v>
+        <v>4</v>
       </c>
       <c r="J5" s="22">
         <v>0</v>
@@ -2033,13 +2054,13 @@
         <v>38</v>
       </c>
       <c r="D6" s="17">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E6" s="14" t="s">
         <v>21</v>
       </c>
       <c r="F6" s="15" t="s">
-        <v>56</v>
+        <v>12</v>
       </c>
       <c r="G6" s="15">
         <v>1</v>
@@ -2048,7 +2069,7 @@
         <v>23</v>
       </c>
       <c r="I6" s="15" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="J6" s="17">
         <v>0</v>
@@ -2067,22 +2088,22 @@
         <v>20</v>
       </c>
       <c r="D7" s="22">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E7" s="6" t="s">
         <v>27</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>42</v>
+        <v>58</v>
       </c>
       <c r="G7" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H7" s="21" t="s">
         <v>29</v>
       </c>
       <c r="I7" s="7" t="s">
-        <v>12</v>
+        <v>74</v>
       </c>
       <c r="J7" s="22">
         <v>0</v>
@@ -2098,7 +2119,7 @@
         <v>31</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>2</v>
+        <v>50</v>
       </c>
       <c r="D8" s="17">
         <v>8</v>
@@ -2107,16 +2128,16 @@
         <v>33</v>
       </c>
       <c r="F8" s="15" t="s">
-        <v>54</v>
+        <v>6</v>
       </c>
       <c r="G8" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H8" s="16" t="s">
         <v>35</v>
       </c>
       <c r="I8" s="15" t="s">
-        <v>34</v>
+        <v>64</v>
       </c>
       <c r="J8" s="17">
         <v>0</v>
@@ -2132,25 +2153,25 @@
         <v>37</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>50</v>
+        <v>8</v>
       </c>
       <c r="D9" s="22">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E9" s="6" t="s">
         <v>39</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="G9" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H9" s="21" t="s">
         <v>41</v>
       </c>
       <c r="I9" s="7" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="J9" s="22">
         <v>0</v>
@@ -2170,22 +2191,22 @@
         <v>32</v>
       </c>
       <c r="D10" s="17">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E10" s="14" t="s">
         <v>45</v>
       </c>
       <c r="F10" s="15" t="s">
-        <v>4</v>
+        <v>75</v>
       </c>
       <c r="G10" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H10" s="16" t="s">
         <v>47</v>
       </c>
       <c r="I10" s="15" t="s">
-        <v>36</v>
+        <v>65</v>
       </c>
       <c r="J10" s="17">
         <v>0</v>
@@ -2201,25 +2222,25 @@
         <v>49</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D11" s="22">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E11" s="6" t="s">
         <v>51</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>64</v>
+        <v>40</v>
       </c>
       <c r="G11" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H11" s="21" t="s">
         <v>53</v>
       </c>
       <c r="I11" s="7" t="s">
-        <v>60</v>
+        <v>36</v>
       </c>
       <c r="J11" s="22">
         <v>0</v>
@@ -2235,25 +2256,25 @@
         <v>55</v>
       </c>
       <c r="C12" s="15" t="s">
-        <v>16</v>
+        <v>56</v>
       </c>
       <c r="D12" s="17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E12" s="14" t="s">
         <v>57</v>
       </c>
       <c r="F12" s="15" t="s">
-        <v>65</v>
+        <v>34</v>
       </c>
       <c r="G12" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H12" s="16" t="s">
         <v>59</v>
       </c>
       <c r="I12" s="15" t="s">
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="J12" s="17">
         <v>0</v>
@@ -2284,7 +2305,7 @@
     <row r="14" ht="19.35" customHeight="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="25" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="C14" s="25"/>
       <c r="D14" s="25"/>
@@ -2343,16 +2364,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="B1" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="C1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="D1" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">

--- a/output.xlsx
+++ b/output.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="82">
   <si>
     <t>Qui a attrapé le plus de Cobblemons ?</t>
   </si>
@@ -31,178 +31,178 @@
     <t>11.</t>
   </si>
   <si>
+    <t>Swqsh</t>
+  </si>
+  <si>
+    <t>21.</t>
+  </si>
+  <si>
+    <t>Xtrem_lalaniix</t>
+  </si>
+  <si>
+    <t>2.</t>
+  </si>
+  <si>
+    <t>NekaiElDog</t>
+  </si>
+  <si>
+    <t>12.</t>
+  </si>
+  <si>
+    <t>Thomsondu45</t>
+  </si>
+  <si>
+    <t>22.</t>
+  </si>
+  <si>
+    <t>Sky_ReyHD</t>
+  </si>
+  <si>
+    <t>3.</t>
+  </si>
+  <si>
+    <t>HeatleoDuster</t>
+  </si>
+  <si>
+    <t>13.</t>
+  </si>
+  <si>
+    <t>Bazouho</t>
+  </si>
+  <si>
+    <t>23.</t>
+  </si>
+  <si>
+    <t>AceCertix</t>
+  </si>
+  <si>
+    <t>4.</t>
+  </si>
+  <si>
+    <t>Odhyn</t>
+  </si>
+  <si>
+    <t>14.</t>
+  </si>
+  <si>
+    <t>Banamas_</t>
+  </si>
+  <si>
+    <t>24.</t>
+  </si>
+  <si>
+    <t>Lenny_san</t>
+  </si>
+  <si>
+    <t>5.</t>
+  </si>
+  <si>
+    <t>Azufinn</t>
+  </si>
+  <si>
+    <t>15.</t>
+  </si>
+  <si>
+    <t>Le_willl</t>
+  </si>
+  <si>
+    <t>25.</t>
+  </si>
+  <si>
+    <t>Solveurk</t>
+  </si>
+  <si>
+    <t>6.</t>
+  </si>
+  <si>
+    <t>Otachisaburi</t>
+  </si>
+  <si>
+    <t>16.</t>
+  </si>
+  <si>
     <t>Methyril</t>
   </si>
   <si>
-    <t>21.</t>
-  </si>
-  <si>
-    <t>Banamas_</t>
-  </si>
-  <si>
-    <t>2.</t>
-  </si>
-  <si>
-    <t>NekaiElDog</t>
-  </si>
-  <si>
-    <t>12.</t>
-  </si>
-  <si>
-    <t>Le_willl</t>
-  </si>
-  <si>
-    <t>22.</t>
+    <t>26.</t>
+  </si>
+  <si>
+    <t>buderacing</t>
+  </si>
+  <si>
+    <t>7.</t>
+  </si>
+  <si>
+    <t>Eniox_0</t>
+  </si>
+  <si>
+    <t>17.</t>
+  </si>
+  <si>
+    <t>SyKape</t>
+  </si>
+  <si>
+    <t>27.</t>
+  </si>
+  <si>
+    <t>RevengeGoon</t>
+  </si>
+  <si>
+    <t>8.</t>
+  </si>
+  <si>
+    <t>FunBass</t>
+  </si>
+  <si>
+    <t>18.</t>
+  </si>
+  <si>
+    <t>Lutjio</t>
+  </si>
+  <si>
+    <t>28.</t>
   </si>
   <si>
     <t>oluvilis</t>
   </si>
   <si>
-    <t>3.</t>
-  </si>
-  <si>
-    <t>HeatleoDuster</t>
-  </si>
-  <si>
-    <t>13.</t>
-  </si>
-  <si>
-    <t>Otachisaburi</t>
-  </si>
-  <si>
-    <t>23.</t>
-  </si>
-  <si>
-    <t>Xtrem_lalaniix</t>
-  </si>
-  <si>
-    <t>4.</t>
-  </si>
-  <si>
-    <t>Odhyn</t>
-  </si>
-  <si>
-    <t>14.</t>
+    <t>9.</t>
+  </si>
+  <si>
+    <t>ashbee404</t>
+  </si>
+  <si>
+    <t>19.</t>
+  </si>
+  <si>
+    <t>NeoPreda</t>
+  </si>
+  <si>
+    <t>29.</t>
+  </si>
+  <si>
+    <t>Elestiano</t>
+  </si>
+  <si>
+    <t>10.</t>
+  </si>
+  <si>
+    <t>Adri3n76</t>
+  </si>
+  <si>
+    <t>20.</t>
   </si>
   <si>
     <t>Framex74</t>
   </si>
   <si>
-    <t>24.</t>
-  </si>
-  <si>
-    <t>Arpegiuss</t>
-  </si>
-  <si>
-    <t>5.</t>
-  </si>
-  <si>
-    <t>Azufinn</t>
-  </si>
-  <si>
-    <t>15.</t>
-  </si>
-  <si>
-    <t>NeoPreda</t>
-  </si>
-  <si>
-    <t>25.</t>
-  </si>
-  <si>
-    <t>Thomsondu45</t>
-  </si>
-  <si>
-    <t>6.</t>
-  </si>
-  <si>
-    <t>Eniox_0</t>
-  </si>
-  <si>
-    <t>16.</t>
-  </si>
-  <si>
-    <t>Sky_ReyHD</t>
-  </si>
-  <si>
-    <t>26.</t>
+    <t>30.</t>
   </si>
   <si>
     <t>Freeze_zaeyo_</t>
   </si>
   <si>
-    <t>7.</t>
-  </si>
-  <si>
-    <t>FunBass</t>
-  </si>
-  <si>
-    <t>17.</t>
-  </si>
-  <si>
-    <t>SyKape</t>
-  </si>
-  <si>
-    <t>27.</t>
-  </si>
-  <si>
-    <t>Dilag</t>
-  </si>
-  <si>
-    <t>8.</t>
-  </si>
-  <si>
-    <t>Adri3n76</t>
-  </si>
-  <si>
-    <t>18.</t>
-  </si>
-  <si>
-    <t>Swqsh</t>
-  </si>
-  <si>
-    <t>28.</t>
-  </si>
-  <si>
-    <t>RevengeGoon</t>
-  </si>
-  <si>
-    <t>9.</t>
-  </si>
-  <si>
-    <t>ashbee404</t>
-  </si>
-  <si>
-    <t>19.</t>
-  </si>
-  <si>
-    <t>AceCertix</t>
-  </si>
-  <si>
-    <t>29.</t>
-  </si>
-  <si>
-    <t>Elestiano</t>
-  </si>
-  <si>
-    <t>10.</t>
-  </si>
-  <si>
-    <t>Bazouho</t>
-  </si>
-  <si>
-    <t>20.</t>
-  </si>
-  <si>
-    <t>FirFlaSh</t>
-  </si>
-  <si>
-    <t>30.</t>
-  </si>
-  <si>
-    <t>Teubish</t>
-  </si>
-  <si>
-    <t>Dernière update le 24.02.25 à 20:13</t>
+    <t>Dernière update le 25.02.25 à 20:53</t>
   </si>
   <si>
     <t>Most Pokemons Captured</t>
@@ -243,28 +243,28 @@
     </r>
   </si>
   <si>
-    <t>Lutjio</t>
+    <t>De_Oceane</t>
+  </si>
+  <si>
+    <t>Arpegiuss</t>
   </si>
   <si>
     <t>AxoliaTV</t>
   </si>
   <si>
-    <t>De_Oceane</t>
-  </si>
-  <si>
-    <t>buderacing</t>
+    <t>FirFlaSh</t>
   </si>
   <si>
     <t>Pyrocika</t>
   </si>
   <si>
+    <t>SnowGeek_</t>
+  </si>
+  <si>
     <t>Balhgar</t>
   </si>
   <si>
     <t>Mamazou</t>
-  </si>
-  <si>
-    <t>Lenny_san</t>
   </si>
   <si>
     <t>Shiny Pokemons Leaderboard</t>
@@ -295,10 +295,13 @@
     </r>
   </si>
   <si>
-    <t>AlkaciD</t>
+    <t>Aestoxic</t>
   </si>
   <si>
     <t>BillyHck</t>
+  </si>
+  <si>
+    <t>Noiartam</t>
   </si>
   <si>
     <t>Legendary Captures Leaderboard</t>
@@ -1020,7 +1023,7 @@
         <v>2</v>
       </c>
       <c r="D3" s="5">
-        <v>538</v>
+        <v>541</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>3</v>
@@ -1029,7 +1032,7 @@
         <v>4</v>
       </c>
       <c r="G3" s="7">
-        <v>148</v>
+        <v>212</v>
       </c>
       <c r="H3" s="8" t="s">
         <v>5</v>
@@ -1038,7 +1041,7 @@
         <v>6</v>
       </c>
       <c r="J3" s="10">
-        <v>53</v>
+        <v>119</v>
       </c>
       <c r="K3" s="6"/>
       <c r="L3" s="7"/>
@@ -1054,7 +1057,7 @@
         <v>8</v>
       </c>
       <c r="D4" s="13">
-        <v>519</v>
+        <v>528</v>
       </c>
       <c r="E4" s="14" t="s">
         <v>9</v>
@@ -1063,7 +1066,7 @@
         <v>10</v>
       </c>
       <c r="G4" s="15">
-        <v>148</v>
+        <v>205</v>
       </c>
       <c r="H4" s="16" t="s">
         <v>11</v>
@@ -1072,7 +1075,7 @@
         <v>12</v>
       </c>
       <c r="J4" s="17">
-        <v>47</v>
+        <v>108</v>
       </c>
       <c r="K4" s="14"/>
       <c r="L4" s="15"/>
@@ -1088,7 +1091,7 @@
         <v>14</v>
       </c>
       <c r="D5" s="20">
-        <v>471</v>
+        <v>516</v>
       </c>
       <c r="E5" s="6" t="s">
         <v>15</v>
@@ -1097,7 +1100,7 @@
         <v>16</v>
       </c>
       <c r="G5" s="7">
-        <v>145</v>
+        <v>201</v>
       </c>
       <c r="H5" s="21" t="s">
         <v>17</v>
@@ -1106,7 +1109,7 @@
         <v>18</v>
       </c>
       <c r="J5" s="22">
-        <v>47</v>
+        <v>92</v>
       </c>
       <c r="K5" s="6"/>
       <c r="L5" s="7"/>
@@ -1122,7 +1125,7 @@
         <v>20</v>
       </c>
       <c r="D6" s="17">
-        <v>382</v>
+        <v>401</v>
       </c>
       <c r="E6" s="14" t="s">
         <v>21</v>
@@ -1131,7 +1134,7 @@
         <v>22</v>
       </c>
       <c r="G6" s="15">
-        <v>119</v>
+        <v>196</v>
       </c>
       <c r="H6" s="16" t="s">
         <v>23</v>
@@ -1140,7 +1143,7 @@
         <v>24</v>
       </c>
       <c r="J6" s="17">
-        <v>46</v>
+        <v>83</v>
       </c>
       <c r="K6" s="14"/>
       <c r="L6" s="15"/>
@@ -1156,7 +1159,7 @@
         <v>26</v>
       </c>
       <c r="D7" s="22">
-        <v>378</v>
+        <v>383</v>
       </c>
       <c r="E7" s="6" t="s">
         <v>27</v>
@@ -1165,7 +1168,7 @@
         <v>28</v>
       </c>
       <c r="G7" s="7">
-        <v>112</v>
+        <v>172</v>
       </c>
       <c r="H7" s="21" t="s">
         <v>29</v>
@@ -1174,7 +1177,7 @@
         <v>30</v>
       </c>
       <c r="J7" s="22">
-        <v>44</v>
+        <v>82</v>
       </c>
       <c r="K7" s="6"/>
       <c r="L7" s="7"/>
@@ -1190,7 +1193,7 @@
         <v>32</v>
       </c>
       <c r="D8" s="17">
-        <v>250</v>
+        <v>344</v>
       </c>
       <c r="E8" s="14" t="s">
         <v>33</v>
@@ -1199,7 +1202,7 @@
         <v>34</v>
       </c>
       <c r="G8" s="15">
-        <v>108</v>
+        <v>162</v>
       </c>
       <c r="H8" s="16" t="s">
         <v>35</v>
@@ -1208,7 +1211,7 @@
         <v>36</v>
       </c>
       <c r="J8" s="17">
-        <v>34</v>
+        <v>75</v>
       </c>
       <c r="K8" s="14"/>
       <c r="L8" s="15"/>
@@ -1224,7 +1227,7 @@
         <v>38</v>
       </c>
       <c r="D9" s="22">
-        <v>228</v>
+        <v>334</v>
       </c>
       <c r="E9" s="6" t="s">
         <v>39</v>
@@ -1233,7 +1236,7 @@
         <v>40</v>
       </c>
       <c r="G9" s="7">
-        <v>86</v>
+        <v>137</v>
       </c>
       <c r="H9" s="21" t="s">
         <v>41</v>
@@ -1242,7 +1245,7 @@
         <v>42</v>
       </c>
       <c r="J9" s="22">
-        <v>32</v>
+        <v>71</v>
       </c>
       <c r="K9" s="6"/>
       <c r="L9" s="7"/>
@@ -1259,7 +1262,7 @@
         <v>44</v>
       </c>
       <c r="D10" s="17">
-        <v>217</v>
+        <v>228</v>
       </c>
       <c r="E10" s="14" t="s">
         <v>45</v>
@@ -1268,7 +1271,7 @@
         <v>46</v>
       </c>
       <c r="G10" s="15">
-        <v>82</v>
+        <v>131</v>
       </c>
       <c r="H10" s="16" t="s">
         <v>47</v>
@@ -1277,7 +1280,7 @@
         <v>48</v>
       </c>
       <c r="J10" s="17">
-        <v>29</v>
+        <v>61</v>
       </c>
       <c r="K10" s="14"/>
       <c r="L10" s="15"/>
@@ -1293,7 +1296,7 @@
         <v>50</v>
       </c>
       <c r="D11" s="22">
-        <v>187</v>
+        <v>223</v>
       </c>
       <c r="E11" s="6" t="s">
         <v>51</v>
@@ -1302,7 +1305,7 @@
         <v>52</v>
       </c>
       <c r="G11" s="7">
-        <v>63</v>
+        <v>122</v>
       </c>
       <c r="H11" s="21" t="s">
         <v>53</v>
@@ -1311,7 +1314,7 @@
         <v>54</v>
       </c>
       <c r="J11" s="22">
-        <v>27</v>
+        <v>61</v>
       </c>
       <c r="K11" s="6"/>
       <c r="L11" s="7"/>
@@ -1327,7 +1330,7 @@
         <v>56</v>
       </c>
       <c r="D12" s="17">
-        <v>185</v>
+        <v>218</v>
       </c>
       <c r="E12" s="14" t="s">
         <v>57</v>
@@ -1336,7 +1339,7 @@
         <v>58</v>
       </c>
       <c r="G12" s="15">
-        <v>56</v>
+        <v>119</v>
       </c>
       <c r="H12" s="16" t="s">
         <v>59</v>
@@ -1345,7 +1348,7 @@
         <v>60</v>
       </c>
       <c r="J12" s="17">
-        <v>26</v>
+        <v>59</v>
       </c>
       <c r="K12" s="14"/>
       <c r="L12" s="15"/>
@@ -1492,7 +1495,7 @@
         <v>3</v>
       </c>
       <c r="F3" s="29" t="s">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="G3" s="29">
         <v>7</v>
@@ -1501,10 +1504,10 @@
         <v>5</v>
       </c>
       <c r="I3" s="31" t="s">
-        <v>32</v>
+        <v>56</v>
       </c>
       <c r="J3" s="32">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K3" s="28"/>
       <c r="L3" s="29"/>
@@ -1520,25 +1523,25 @@
         <v>8</v>
       </c>
       <c r="D4" s="13">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="E4" s="33" t="s">
         <v>9</v>
       </c>
       <c r="F4" s="34" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="G4" s="34">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H4" s="35" t="s">
         <v>11</v>
       </c>
       <c r="I4" s="34" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="J4" s="36">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K4" s="33"/>
       <c r="L4" s="34"/>
@@ -1554,16 +1557,16 @@
         <v>14</v>
       </c>
       <c r="D5" s="20">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="E5" s="28" t="s">
         <v>15</v>
       </c>
       <c r="F5" s="29" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="G5" s="29">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H5" s="37" t="s">
         <v>17</v>
@@ -1588,13 +1591,13 @@
         <v>26</v>
       </c>
       <c r="D6" s="36">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E6" s="33" t="s">
         <v>21</v>
       </c>
       <c r="F6" s="34" t="s">
-        <v>66</v>
+        <v>16</v>
       </c>
       <c r="G6" s="34">
         <v>5</v>
@@ -1603,7 +1606,7 @@
         <v>23</v>
       </c>
       <c r="I6" s="34" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J6" s="36">
         <v>1</v>
@@ -1622,13 +1625,13 @@
         <v>50</v>
       </c>
       <c r="D7" s="38">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E7" s="28" t="s">
         <v>27</v>
       </c>
       <c r="F7" s="29" t="s">
-        <v>46</v>
+        <v>67</v>
       </c>
       <c r="G7" s="29">
         <v>5</v>
@@ -1653,25 +1656,25 @@
         <v>31</v>
       </c>
       <c r="C8" s="34" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="D8" s="36">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E8" s="33" t="s">
         <v>33</v>
       </c>
       <c r="F8" s="34" t="s">
-        <v>30</v>
+        <v>4</v>
       </c>
       <c r="G8" s="34">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H8" s="35" t="s">
         <v>35</v>
       </c>
       <c r="I8" s="34" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="J8" s="36">
         <v>1</v>
@@ -1687,25 +1690,25 @@
         <v>37</v>
       </c>
       <c r="C9" s="29" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="D9" s="38">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E9" s="28" t="s">
         <v>39</v>
       </c>
       <c r="F9" s="29" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="G9" s="29">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H9" s="37" t="s">
         <v>41</v>
       </c>
       <c r="I9" s="29" t="s">
-        <v>69</v>
+        <v>18</v>
       </c>
       <c r="J9" s="38">
         <v>1</v>
@@ -1722,7 +1725,7 @@
         <v>43</v>
       </c>
       <c r="C10" s="34" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="D10" s="36">
         <v>8</v>
@@ -1731,7 +1734,7 @@
         <v>45</v>
       </c>
       <c r="F10" s="34" t="s">
-        <v>38</v>
+        <v>60</v>
       </c>
       <c r="G10" s="34">
         <v>3</v>
@@ -1740,10 +1743,10 @@
         <v>47</v>
       </c>
       <c r="I10" s="34" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J10" s="36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K10" s="33"/>
       <c r="L10" s="34"/>
@@ -1756,7 +1759,7 @@
         <v>49</v>
       </c>
       <c r="C11" s="29" t="s">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="D11" s="38">
         <v>8</v>
@@ -1774,10 +1777,10 @@
         <v>53</v>
       </c>
       <c r="I11" s="29" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J11" s="38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K11" s="28"/>
       <c r="L11" s="29"/>
@@ -1790,7 +1793,7 @@
         <v>55</v>
       </c>
       <c r="C12" s="34" t="s">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="D12" s="36">
         <v>7</v>
@@ -1799,16 +1802,16 @@
         <v>57</v>
       </c>
       <c r="F12" s="34" t="s">
-        <v>6</v>
+        <v>38</v>
       </c>
       <c r="G12" s="34">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H12" s="35" t="s">
         <v>59</v>
       </c>
       <c r="I12" s="34" t="s">
-        <v>4</v>
+        <v>71</v>
       </c>
       <c r="J12" s="36">
         <v>0</v>
@@ -1958,16 +1961,16 @@
         <v>3</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>70</v>
+        <v>18</v>
       </c>
       <c r="G3" s="7">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H3" s="8" t="s">
         <v>5</v>
       </c>
       <c r="I3" s="9" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J3" s="10">
         <v>1</v>
@@ -1986,25 +1989,25 @@
         <v>14</v>
       </c>
       <c r="D4" s="13">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E4" s="14" t="s">
         <v>9</v>
       </c>
       <c r="F4" s="15" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="G4" s="15">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H4" s="16" t="s">
         <v>11</v>
       </c>
       <c r="I4" s="15" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="J4" s="17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K4" s="14"/>
       <c r="L4" s="15"/>
@@ -2026,19 +2029,19 @@
         <v>15</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="G5" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H5" s="21" t="s">
         <v>17</v>
       </c>
       <c r="I5" s="7" t="s">
-        <v>4</v>
+        <v>54</v>
       </c>
       <c r="J5" s="22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K5" s="6"/>
       <c r="L5" s="7"/>
@@ -2051,7 +2054,7 @@
         <v>19</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="D6" s="17">
         <v>14</v>
@@ -2060,19 +2063,19 @@
         <v>21</v>
       </c>
       <c r="F6" s="15" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="G6" s="15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H6" s="16" t="s">
         <v>23</v>
       </c>
       <c r="I6" s="15" t="s">
-        <v>22</v>
+        <v>75</v>
       </c>
       <c r="J6" s="17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K6" s="14"/>
       <c r="L6" s="15"/>
@@ -2088,25 +2091,25 @@
         <v>20</v>
       </c>
       <c r="D7" s="22">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E7" s="6" t="s">
         <v>27</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>58</v>
+        <v>71</v>
       </c>
       <c r="G7" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H7" s="21" t="s">
         <v>29</v>
       </c>
       <c r="I7" s="7" t="s">
-        <v>74</v>
+        <v>40</v>
       </c>
       <c r="J7" s="22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K7" s="6"/>
       <c r="L7" s="7"/>
@@ -2119,28 +2122,28 @@
         <v>31</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="D8" s="17">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E8" s="14" t="s">
         <v>33</v>
       </c>
       <c r="F8" s="15" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="G8" s="15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H8" s="16" t="s">
         <v>35</v>
       </c>
       <c r="I8" s="15" t="s">
-        <v>64</v>
+        <v>12</v>
       </c>
       <c r="J8" s="17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K8" s="14"/>
       <c r="L8" s="15"/>
@@ -2156,25 +2159,25 @@
         <v>8</v>
       </c>
       <c r="D9" s="22">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E9" s="6" t="s">
         <v>39</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>16</v>
+        <v>52</v>
       </c>
       <c r="G9" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H9" s="21" t="s">
         <v>41</v>
       </c>
       <c r="I9" s="7" t="s">
-        <v>24</v>
+        <v>56</v>
       </c>
       <c r="J9" s="22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K9" s="6"/>
       <c r="L9" s="7"/>
@@ -2188,25 +2191,25 @@
         <v>43</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="D10" s="17">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E10" s="14" t="s">
         <v>45</v>
       </c>
       <c r="F10" s="15" t="s">
-        <v>75</v>
+        <v>10</v>
       </c>
       <c r="G10" s="15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H10" s="16" t="s">
         <v>47</v>
       </c>
       <c r="I10" s="15" t="s">
-        <v>65</v>
+        <v>24</v>
       </c>
       <c r="J10" s="17">
         <v>0</v>
@@ -2222,16 +2225,16 @@
         <v>49</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>46</v>
+        <v>4</v>
       </c>
       <c r="D11" s="22">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E11" s="6" t="s">
         <v>51</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>40</v>
+        <v>67</v>
       </c>
       <c r="G11" s="7">
         <v>1</v>
@@ -2240,7 +2243,7 @@
         <v>53</v>
       </c>
       <c r="I11" s="7" t="s">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="J11" s="22">
         <v>0</v>
@@ -2256,16 +2259,16 @@
         <v>55</v>
       </c>
       <c r="C12" s="15" t="s">
-        <v>56</v>
+        <v>32</v>
       </c>
       <c r="D12" s="17">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E12" s="14" t="s">
         <v>57</v>
       </c>
       <c r="F12" s="15" t="s">
-        <v>34</v>
+        <v>60</v>
       </c>
       <c r="G12" s="15">
         <v>1</v>
@@ -2274,7 +2277,7 @@
         <v>59</v>
       </c>
       <c r="I12" s="15" t="s">
-        <v>67</v>
+        <v>34</v>
       </c>
       <c r="J12" s="17">
         <v>0</v>
@@ -2305,7 +2308,7 @@
     <row r="14" ht="19.35" customHeight="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="25" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C14" s="25"/>
       <c r="D14" s="25"/>
@@ -2364,16 +2367,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">

--- a/output.xlsx
+++ b/output.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="97">
   <si>
     <t>Qui a attrapé le plus de Cobblemons ?</t>
   </si>
@@ -40,6 +40,12 @@
     <t>Xtrem_lalaniix</t>
   </si>
   <si>
+    <t>31.</t>
+  </si>
+  <si>
+    <t>FirFlaSh</t>
+  </si>
+  <si>
     <t>2.</t>
   </si>
   <si>
@@ -58,6 +64,12 @@
     <t>Sky_ReyHD</t>
   </si>
   <si>
+    <t>32.</t>
+  </si>
+  <si>
+    <t>De_Oceane</t>
+  </si>
+  <si>
     <t>3.</t>
   </si>
   <si>
@@ -76,6 +88,12 @@
     <t>AceCertix</t>
   </si>
   <si>
+    <t>33.</t>
+  </si>
+  <si>
+    <t>Arpegiuss</t>
+  </si>
+  <si>
     <t>4.</t>
   </si>
   <si>
@@ -94,6 +112,12 @@
     <t>Lenny_san</t>
   </si>
   <si>
+    <t>34.</t>
+  </si>
+  <si>
+    <t>SnowGeek_</t>
+  </si>
+  <si>
     <t>5.</t>
   </si>
   <si>
@@ -112,6 +136,12 @@
     <t>Solveurk</t>
   </si>
   <si>
+    <t>35.</t>
+  </si>
+  <si>
+    <t>Dilag</t>
+  </si>
+  <si>
     <t>6.</t>
   </si>
   <si>
@@ -130,6 +160,12 @@
     <t>buderacing</t>
   </si>
   <si>
+    <t>36.</t>
+  </si>
+  <si>
+    <t>Balhgar</t>
+  </si>
+  <si>
     <t>7.</t>
   </si>
   <si>
@@ -148,6 +184,12 @@
     <t>RevengeGoon</t>
   </si>
   <si>
+    <t>37.</t>
+  </si>
+  <si>
+    <t>Noiartam</t>
+  </si>
+  <si>
     <t>8.</t>
   </si>
   <si>
@@ -163,46 +205,64 @@
     <t>28.</t>
   </si>
   <si>
+    <t>Freeze_zaeyo_</t>
+  </si>
+  <si>
+    <t>38.</t>
+  </si>
+  <si>
+    <t>Teubish</t>
+  </si>
+  <si>
+    <t>9.</t>
+  </si>
+  <si>
+    <t>ashbee404</t>
+  </si>
+  <si>
+    <t>19.</t>
+  </si>
+  <si>
+    <t>NeoPreda</t>
+  </si>
+  <si>
+    <t>29.</t>
+  </si>
+  <si>
     <t>oluvilis</t>
   </si>
   <si>
-    <t>9.</t>
-  </si>
-  <si>
-    <t>ashbee404</t>
-  </si>
-  <si>
-    <t>19.</t>
-  </si>
-  <si>
-    <t>NeoPreda</t>
-  </si>
-  <si>
-    <t>29.</t>
+    <t>39.</t>
+  </si>
+  <si>
+    <t>Pyrocika</t>
+  </si>
+  <si>
+    <t>10.</t>
+  </si>
+  <si>
+    <t>Adri3n76</t>
+  </si>
+  <si>
+    <t>20.</t>
+  </si>
+  <si>
+    <t>Framex74</t>
+  </si>
+  <si>
+    <t>30.</t>
   </si>
   <si>
     <t>Elestiano</t>
   </si>
   <si>
-    <t>10.</t>
-  </si>
-  <si>
-    <t>Adri3n76</t>
-  </si>
-  <si>
-    <t>20.</t>
-  </si>
-  <si>
-    <t>Framex74</t>
-  </si>
-  <si>
-    <t>30.</t>
-  </si>
-  <si>
-    <t>Freeze_zaeyo_</t>
-  </si>
-  <si>
-    <t>Dernière update le 25.02.25 à 20:53</t>
+    <t>40.</t>
+  </si>
+  <si>
+    <t>Aestoxic</t>
+  </si>
+  <si>
+    <t>Dernière update le 25.02.25 à 21:06</t>
   </si>
   <si>
     <t>Most Pokemons Captured</t>
@@ -243,25 +303,16 @@
     </r>
   </si>
   <si>
-    <t>De_Oceane</t>
-  </si>
-  <si>
-    <t>Arpegiuss</t>
-  </si>
-  <si>
     <t>AxoliaTV</t>
   </si>
   <si>
-    <t>FirFlaSh</t>
-  </si>
-  <si>
-    <t>Pyrocika</t>
-  </si>
-  <si>
-    <t>SnowGeek_</t>
-  </si>
-  <si>
-    <t>Balhgar</t>
+    <t>AlkaciD</t>
+  </si>
+  <si>
+    <t>Meryneuneu</t>
+  </si>
+  <si>
+    <t>vaaxito</t>
   </si>
   <si>
     <t>Mamazou</t>
@@ -295,13 +346,7 @@
     </r>
   </si>
   <si>
-    <t>Aestoxic</t>
-  </si>
-  <si>
     <t>BillyHck</t>
-  </si>
-  <si>
-    <t>Noiartam</t>
   </si>
   <si>
     <t>Legendary Captures Leaderboard</t>
@@ -1043,322 +1088,382 @@
       <c r="J3" s="10">
         <v>119</v>
       </c>
-      <c r="K3" s="6"/>
-      <c r="L3" s="7"/>
-      <c r="M3" s="7"/>
+      <c r="K3" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="L3" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="M3" s="7">
+        <v>56</v>
+      </c>
       <c r="N3" s="1"/>
     </row>
     <row r="4" ht="37.35" customHeight="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="11" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D4" s="13">
         <v>528</v>
       </c>
       <c r="E4" s="14" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F4" s="15" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G4" s="15">
         <v>205</v>
       </c>
       <c r="H4" s="16" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="I4" s="15" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="J4" s="17">
         <v>108</v>
       </c>
-      <c r="K4" s="14"/>
-      <c r="L4" s="15"/>
-      <c r="M4" s="15"/>
+      <c r="K4" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="L4" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="M4" s="15">
+        <v>48</v>
+      </c>
       <c r="N4" s="1"/>
     </row>
     <row r="5" ht="37.35" customHeight="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="18" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C5" s="19" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D5" s="20">
         <v>516</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="G5" s="7">
         <v>201</v>
       </c>
       <c r="H5" s="21" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="I5" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="J5" s="22">
         <v>92</v>
       </c>
-      <c r="K5" s="6"/>
-      <c r="L5" s="7"/>
-      <c r="M5" s="7"/>
+      <c r="K5" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="M5" s="7">
+        <v>46</v>
+      </c>
       <c r="N5" s="1"/>
     </row>
     <row r="6" ht="37.35" customHeight="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="16" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="D6" s="17">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="E6" s="14" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="F6" s="15" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="G6" s="15">
         <v>196</v>
       </c>
       <c r="H6" s="16" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="I6" s="15" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="J6" s="17">
-        <v>83</v>
-      </c>
-      <c r="K6" s="14"/>
-      <c r="L6" s="15"/>
-      <c r="M6" s="15"/>
+        <v>84</v>
+      </c>
+      <c r="K6" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="L6" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="M6" s="15">
+        <v>40</v>
+      </c>
       <c r="N6" s="1"/>
     </row>
     <row r="7" ht="37.35" customHeight="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="21" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="D7" s="22">
         <v>383</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="G7" s="7">
         <v>172</v>
       </c>
       <c r="H7" s="21" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="I7" s="7" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="J7" s="22">
         <v>82</v>
       </c>
-      <c r="K7" s="6"/>
-      <c r="L7" s="7"/>
-      <c r="M7" s="7"/>
+      <c r="K7" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="L7" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="M7" s="7">
+        <v>32</v>
+      </c>
       <c r="N7" s="1"/>
     </row>
     <row r="8" ht="37.35" customHeight="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="16" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="D8" s="17">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="E8" s="14" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="F8" s="15" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="G8" s="15">
         <v>162</v>
       </c>
       <c r="H8" s="16" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="I8" s="15" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="J8" s="17">
-        <v>75</v>
-      </c>
-      <c r="K8" s="14"/>
-      <c r="L8" s="15"/>
-      <c r="M8" s="15"/>
+        <v>76</v>
+      </c>
+      <c r="K8" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="L8" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="M8" s="15">
+        <v>31</v>
+      </c>
       <c r="N8" s="1"/>
     </row>
     <row r="9" ht="37.35" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" s="21" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="D9" s="22">
         <v>334</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="G9" s="7">
         <v>137</v>
       </c>
       <c r="H9" s="21" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="I9" s="7" t="s">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="J9" s="22">
         <v>71</v>
       </c>
-      <c r="K9" s="6"/>
-      <c r="L9" s="7"/>
-      <c r="M9" s="7"/>
+      <c r="K9" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="L9" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="M9" s="7">
+        <v>30</v>
+      </c>
       <c r="N9" s="1"/>
       <c r="Q9" s="23"/>
     </row>
     <row r="10" ht="37.35" customHeight="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="16" t="s">
-        <v>43</v>
+        <v>57</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="D10" s="17">
         <v>228</v>
       </c>
       <c r="E10" s="14" t="s">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="F10" s="15" t="s">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="G10" s="15">
         <v>131</v>
       </c>
       <c r="H10" s="16" t="s">
-        <v>47</v>
+        <v>61</v>
       </c>
       <c r="I10" s="15" t="s">
-        <v>48</v>
+        <v>62</v>
       </c>
       <c r="J10" s="17">
-        <v>61</v>
-      </c>
-      <c r="K10" s="14"/>
-      <c r="L10" s="15"/>
-      <c r="M10" s="15"/>
+        <v>63</v>
+      </c>
+      <c r="K10" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="L10" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="M10" s="15">
+        <v>26</v>
+      </c>
       <c r="N10" s="1"/>
     </row>
     <row r="11" ht="37.35" customHeight="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="21" t="s">
-        <v>49</v>
+        <v>65</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>50</v>
+        <v>66</v>
       </c>
       <c r="D11" s="22">
         <v>223</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>52</v>
+        <v>68</v>
       </c>
       <c r="G11" s="7">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="H11" s="21" t="s">
-        <v>53</v>
+        <v>69</v>
       </c>
       <c r="I11" s="7" t="s">
-        <v>54</v>
+        <v>70</v>
       </c>
       <c r="J11" s="22">
         <v>61</v>
       </c>
-      <c r="K11" s="6"/>
-      <c r="L11" s="7"/>
-      <c r="M11" s="7"/>
+      <c r="K11" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="L11" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="M11" s="7">
+        <v>24</v>
+      </c>
       <c r="N11" s="1"/>
     </row>
     <row r="12" ht="37.35" customHeight="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="16" t="s">
-        <v>55</v>
+        <v>73</v>
       </c>
       <c r="C12" s="15" t="s">
-        <v>56</v>
+        <v>74</v>
       </c>
       <c r="D12" s="17">
         <v>218</v>
       </c>
       <c r="E12" s="14" t="s">
-        <v>57</v>
+        <v>75</v>
       </c>
       <c r="F12" s="15" t="s">
-        <v>58</v>
+        <v>76</v>
       </c>
       <c r="G12" s="15">
         <v>119</v>
       </c>
       <c r="H12" s="16" t="s">
-        <v>59</v>
+        <v>77</v>
       </c>
       <c r="I12" s="15" t="s">
-        <v>60</v>
+        <v>78</v>
       </c>
       <c r="J12" s="17">
-        <v>59</v>
-      </c>
-      <c r="K12" s="14"/>
-      <c r="L12" s="15"/>
-      <c r="M12" s="15"/>
+        <v>61</v>
+      </c>
+      <c r="K12" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="L12" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="M12" s="15">
+        <v>21</v>
+      </c>
       <c r="N12" s="1"/>
     </row>
     <row r="13" ht="23.85" customHeight="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="24" t="s">
-        <v>61</v>
+        <v>81</v>
       </c>
       <c r="C13" s="24"/>
       <c r="D13" s="24"/>
@@ -1376,7 +1481,7 @@
     <row r="14" ht="19.35" customHeight="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="25" t="s">
-        <v>62</v>
+        <v>82</v>
       </c>
       <c r="C14" s="25"/>
       <c r="D14" s="25"/>
@@ -1465,7 +1570,7 @@
     <row r="2" ht="83.55" customHeight="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="26"/>
       <c r="B2" s="27" t="s">
-        <v>63</v>
+        <v>83</v>
       </c>
       <c r="C2" s="27"/>
       <c r="D2" s="27"/>
@@ -1495,7 +1600,7 @@
         <v>3</v>
       </c>
       <c r="F3" s="29" t="s">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="G3" s="29">
         <v>7</v>
@@ -1504,165 +1609,195 @@
         <v>5</v>
       </c>
       <c r="I3" s="31" t="s">
-        <v>56</v>
+        <v>74</v>
       </c>
       <c r="J3" s="32">
         <v>3</v>
       </c>
-      <c r="K3" s="28"/>
-      <c r="L3" s="29"/>
-      <c r="M3" s="29"/>
+      <c r="K3" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="L3" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="M3" s="29">
+        <v>0</v>
+      </c>
       <c r="N3" s="26"/>
     </row>
     <row r="4" ht="37.35" customHeight="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="26"/>
       <c r="B4" s="11" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D4" s="13">
         <v>35</v>
       </c>
       <c r="E4" s="33" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F4" s="34" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G4" s="34">
         <v>7</v>
       </c>
       <c r="H4" s="35" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="I4" s="34" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="J4" s="36">
         <v>2</v>
       </c>
-      <c r="K4" s="33"/>
-      <c r="L4" s="34"/>
-      <c r="M4" s="34"/>
+      <c r="K4" s="33" t="s">
+        <v>15</v>
+      </c>
+      <c r="L4" s="34" t="s">
+        <v>56</v>
+      </c>
+      <c r="M4" s="34">
+        <v>0</v>
+      </c>
       <c r="N4" s="26"/>
     </row>
     <row r="5" ht="37.35" customHeight="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="26"/>
       <c r="B5" s="18" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C5" s="19" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D5" s="20">
         <v>30</v>
       </c>
       <c r="E5" s="28" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="F5" s="29" t="s">
-        <v>64</v>
+        <v>16</v>
       </c>
       <c r="G5" s="29">
         <v>6</v>
       </c>
       <c r="H5" s="37" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="I5" s="29" t="s">
-        <v>65</v>
+        <v>24</v>
       </c>
       <c r="J5" s="38">
         <v>1</v>
       </c>
-      <c r="K5" s="28"/>
-      <c r="L5" s="29"/>
-      <c r="M5" s="29"/>
+      <c r="K5" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="L5" s="29" t="s">
+        <v>44</v>
+      </c>
+      <c r="M5" s="29">
+        <v>0</v>
+      </c>
       <c r="N5" s="26"/>
     </row>
     <row r="6" ht="37.35" customHeight="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="26"/>
       <c r="B6" s="35" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="C6" s="34" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="D6" s="36">
         <v>20</v>
       </c>
       <c r="E6" s="33" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="F6" s="34" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="G6" s="34">
         <v>5</v>
       </c>
       <c r="H6" s="35" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="I6" s="34" t="s">
-        <v>66</v>
+        <v>84</v>
       </c>
       <c r="J6" s="36">
         <v>1</v>
       </c>
-      <c r="K6" s="33"/>
-      <c r="L6" s="34"/>
-      <c r="M6" s="34"/>
+      <c r="K6" s="33" t="s">
+        <v>31</v>
+      </c>
+      <c r="L6" s="34" t="s">
+        <v>76</v>
+      </c>
+      <c r="M6" s="34">
+        <v>0</v>
+      </c>
       <c r="N6" s="26"/>
     </row>
     <row r="7" ht="37.35" customHeight="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="26"/>
       <c r="B7" s="37" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="C7" s="29" t="s">
-        <v>50</v>
+        <v>66</v>
       </c>
       <c r="D7" s="38">
         <v>16</v>
       </c>
       <c r="E7" s="28" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="F7" s="29" t="s">
-        <v>67</v>
+        <v>8</v>
       </c>
       <c r="G7" s="29">
         <v>5</v>
       </c>
       <c r="H7" s="37" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="I7" s="29" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="J7" s="38">
         <v>1</v>
       </c>
-      <c r="K7" s="28"/>
-      <c r="L7" s="29"/>
-      <c r="M7" s="29"/>
+      <c r="K7" s="28" t="s">
+        <v>39</v>
+      </c>
+      <c r="L7" s="29" t="s">
+        <v>85</v>
+      </c>
+      <c r="M7" s="29">
+        <v>0</v>
+      </c>
       <c r="N7" s="26"/>
     </row>
     <row r="8" ht="37.35" customHeight="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="26"/>
       <c r="B8" s="35" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="C8" s="34" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="D8" s="36">
         <v>15</v>
       </c>
       <c r="E8" s="33" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="F8" s="34" t="s">
         <v>4</v>
@@ -1671,160 +1806,190 @@
         <v>5</v>
       </c>
       <c r="H8" s="35" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="I8" s="34" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="J8" s="36">
         <v>1</v>
       </c>
-      <c r="K8" s="33"/>
-      <c r="L8" s="34"/>
-      <c r="M8" s="34"/>
+      <c r="K8" s="33" t="s">
+        <v>47</v>
+      </c>
+      <c r="L8" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="M8" s="34">
+        <v>0</v>
+      </c>
       <c r="N8" s="26"/>
     </row>
     <row r="9" ht="37.35" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="26"/>
       <c r="B9" s="37" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="C9" s="29" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="D9" s="38">
         <v>9</v>
       </c>
       <c r="E9" s="28" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="F9" s="29" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="G9" s="29">
         <v>4</v>
       </c>
       <c r="H9" s="37" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="I9" s="29" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="J9" s="38">
         <v>1</v>
       </c>
-      <c r="K9" s="28"/>
-      <c r="L9" s="29"/>
-      <c r="M9" s="29"/>
+      <c r="K9" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="L9" s="29" t="s">
+        <v>38</v>
+      </c>
+      <c r="M9" s="29">
+        <v>0</v>
+      </c>
       <c r="N9" s="26"/>
       <c r="Q9" s="23"/>
     </row>
     <row r="10" ht="37.35" customHeight="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="26"/>
       <c r="B10" s="35" t="s">
-        <v>43</v>
+        <v>57</v>
       </c>
       <c r="C10" s="34" t="s">
-        <v>52</v>
+        <v>68</v>
       </c>
       <c r="D10" s="36">
         <v>8</v>
       </c>
       <c r="E10" s="33" t="s">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="F10" s="34" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="G10" s="34">
         <v>3</v>
       </c>
       <c r="H10" s="35" t="s">
-        <v>47</v>
+        <v>61</v>
       </c>
       <c r="I10" s="34" t="s">
-        <v>69</v>
+        <v>32</v>
       </c>
       <c r="J10" s="36">
         <v>1</v>
       </c>
-      <c r="K10" s="33"/>
-      <c r="L10" s="34"/>
-      <c r="M10" s="34"/>
+      <c r="K10" s="33" t="s">
+        <v>63</v>
+      </c>
+      <c r="L10" s="34" t="s">
+        <v>86</v>
+      </c>
+      <c r="M10" s="34">
+        <v>0</v>
+      </c>
       <c r="N10" s="26"/>
     </row>
     <row r="11" ht="37.35" customHeight="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="26"/>
       <c r="B11" s="37" t="s">
-        <v>49</v>
+        <v>65</v>
       </c>
       <c r="C11" s="29" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="D11" s="38">
         <v>8</v>
       </c>
       <c r="E11" s="28" t="s">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="F11" s="29" t="s">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="G11" s="29">
         <v>3</v>
       </c>
       <c r="H11" s="37" t="s">
-        <v>53</v>
+        <v>69</v>
       </c>
       <c r="I11" s="29" t="s">
-        <v>70</v>
+        <v>48</v>
       </c>
       <c r="J11" s="38">
         <v>1</v>
       </c>
-      <c r="K11" s="28"/>
-      <c r="L11" s="29"/>
-      <c r="M11" s="29"/>
+      <c r="K11" s="28" t="s">
+        <v>71</v>
+      </c>
+      <c r="L11" s="29" t="s">
+        <v>87</v>
+      </c>
+      <c r="M11" s="29">
+        <v>0</v>
+      </c>
       <c r="N11" s="26"/>
     </row>
     <row r="12" ht="37.35" customHeight="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="26"/>
       <c r="B12" s="35" t="s">
-        <v>55</v>
+        <v>73</v>
       </c>
       <c r="C12" s="34" t="s">
-        <v>48</v>
+        <v>70</v>
       </c>
       <c r="D12" s="36">
         <v>7</v>
       </c>
       <c r="E12" s="33" t="s">
-        <v>57</v>
+        <v>75</v>
       </c>
       <c r="F12" s="34" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="G12" s="34">
         <v>3</v>
       </c>
       <c r="H12" s="35" t="s">
-        <v>59</v>
+        <v>77</v>
       </c>
       <c r="I12" s="34" t="s">
-        <v>71</v>
+        <v>88</v>
       </c>
       <c r="J12" s="36">
         <v>0</v>
       </c>
-      <c r="K12" s="33"/>
-      <c r="L12" s="34"/>
-      <c r="M12" s="34"/>
+      <c r="K12" s="33" t="s">
+        <v>79</v>
+      </c>
+      <c r="L12" s="34" t="s">
+        <v>6</v>
+      </c>
+      <c r="M12" s="34">
+        <v>0</v>
+      </c>
       <c r="N12" s="26"/>
     </row>
     <row r="13" ht="23.85" customHeight="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="26"/>
       <c r="B13" s="39" t="s">
-        <v>61</v>
+        <v>81</v>
       </c>
       <c r="C13" s="39"/>
       <c r="D13" s="39"/>
@@ -1842,7 +2007,7 @@
     <row r="14" ht="19.35" customHeight="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="26"/>
       <c r="B14" s="40" t="s">
-        <v>72</v>
+        <v>89</v>
       </c>
       <c r="C14" s="40"/>
       <c r="D14" s="40"/>
@@ -1931,7 +2096,7 @@
     <row r="2" ht="83.55" customHeight="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="2" t="s">
-        <v>73</v>
+        <v>90</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
@@ -1961,7 +2126,7 @@
         <v>3</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="G3" s="7">
         <v>5</v>
@@ -1970,259 +2135,307 @@
         <v>5</v>
       </c>
       <c r="I3" s="9" t="s">
-        <v>42</v>
+        <v>62</v>
       </c>
       <c r="J3" s="10">
         <v>1</v>
       </c>
-      <c r="K3" s="6"/>
-      <c r="L3" s="7"/>
-      <c r="M3" s="7"/>
+      <c r="K3" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="L3" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="M3" s="7">
+        <v>0</v>
+      </c>
       <c r="N3" s="1"/>
     </row>
     <row r="4" ht="37.35" customHeight="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="11" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D4" s="13">
         <v>23</v>
       </c>
       <c r="E4" s="14" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F4" s="15" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="G4" s="15">
         <v>4</v>
       </c>
       <c r="H4" s="16" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="I4" s="15" t="s">
-        <v>74</v>
+        <v>54</v>
       </c>
       <c r="J4" s="17">
         <v>1</v>
       </c>
-      <c r="K4" s="14"/>
-      <c r="L4" s="15"/>
-      <c r="M4" s="15"/>
+      <c r="K4" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="L4" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="M4" s="15">
+        <v>0</v>
+      </c>
       <c r="N4" s="1"/>
     </row>
     <row r="5" ht="37.35" customHeight="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="18" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C5" s="19" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="D5" s="20">
         <v>17</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>48</v>
+        <v>70</v>
       </c>
       <c r="G5" s="7">
         <v>3</v>
       </c>
       <c r="H5" s="21" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="I5" s="7" t="s">
-        <v>54</v>
+        <v>80</v>
       </c>
       <c r="J5" s="22">
         <v>1</v>
       </c>
-      <c r="K5" s="6"/>
-      <c r="L5" s="7"/>
-      <c r="M5" s="7"/>
+      <c r="K5" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="M5" s="7">
+        <v>0</v>
+      </c>
       <c r="N5" s="1"/>
     </row>
     <row r="6" ht="37.35" customHeight="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="16" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="D6" s="17">
         <v>14</v>
       </c>
       <c r="E6" s="14" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="F6" s="15" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="G6" s="15">
         <v>3</v>
       </c>
       <c r="H6" s="16" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="I6" s="15" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="J6" s="17">
         <v>1</v>
       </c>
-      <c r="K6" s="14"/>
-      <c r="L6" s="15"/>
-      <c r="M6" s="15"/>
+      <c r="K6" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="L6" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="M6" s="15">
+        <v>0</v>
+      </c>
       <c r="N6" s="1"/>
     </row>
     <row r="7" ht="37.35" customHeight="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="21" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="D7" s="22">
         <v>13</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>71</v>
+        <v>88</v>
       </c>
       <c r="G7" s="7">
         <v>2</v>
       </c>
       <c r="H7" s="21" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="I7" s="7" t="s">
-        <v>40</v>
+        <v>91</v>
       </c>
       <c r="J7" s="22">
         <v>1</v>
       </c>
-      <c r="K7" s="6"/>
-      <c r="L7" s="7"/>
-      <c r="M7" s="7"/>
+      <c r="K7" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="L7" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="M7" s="7">
+        <v>0</v>
+      </c>
       <c r="N7" s="1"/>
     </row>
     <row r="8" ht="37.35" customHeight="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="16" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="D8" s="17">
         <v>10</v>
       </c>
       <c r="E8" s="14" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="F8" s="15" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="G8" s="15">
         <v>2</v>
       </c>
       <c r="H8" s="16" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="I8" s="15" t="s">
-        <v>12</v>
+        <v>52</v>
       </c>
       <c r="J8" s="17">
         <v>1</v>
       </c>
-      <c r="K8" s="14"/>
-      <c r="L8" s="15"/>
-      <c r="M8" s="15"/>
+      <c r="K8" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="L8" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="M8" s="15">
+        <v>0</v>
+      </c>
       <c r="N8" s="1"/>
     </row>
     <row r="9" ht="37.35" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" s="21" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D9" s="22">
         <v>9</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>52</v>
+        <v>68</v>
       </c>
       <c r="G9" s="7">
         <v>2</v>
       </c>
       <c r="H9" s="21" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="I9" s="7" t="s">
-        <v>56</v>
+        <v>14</v>
       </c>
       <c r="J9" s="22">
         <v>1</v>
       </c>
-      <c r="K9" s="6"/>
-      <c r="L9" s="7"/>
-      <c r="M9" s="7"/>
+      <c r="K9" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="L9" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="M9" s="7">
+        <v>0</v>
+      </c>
       <c r="N9" s="1"/>
       <c r="Q9" s="23"/>
     </row>
     <row r="10" ht="37.35" customHeight="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="16" t="s">
-        <v>43</v>
+        <v>57</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>50</v>
+        <v>66</v>
       </c>
       <c r="D10" s="17">
         <v>8</v>
       </c>
       <c r="E10" s="14" t="s">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="F10" s="15" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G10" s="15">
         <v>2</v>
       </c>
       <c r="H10" s="16" t="s">
-        <v>47</v>
+        <v>61</v>
       </c>
       <c r="I10" s="15" t="s">
-        <v>24</v>
+        <v>74</v>
       </c>
       <c r="J10" s="17">
+        <v>1</v>
+      </c>
+      <c r="K10" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="L10" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="M10" s="15">
         <v>0</v>
       </c>
-      <c r="K10" s="14"/>
-      <c r="L10" s="15"/>
-      <c r="M10" s="15"/>
       <c r="N10" s="1"/>
     </row>
     <row r="11" ht="37.35" customHeight="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="21" t="s">
-        <v>49</v>
+        <v>65</v>
       </c>
       <c r="C11" s="7" t="s">
         <v>4</v>
@@ -2231,66 +2444,78 @@
         <v>7</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>67</v>
+        <v>30</v>
       </c>
       <c r="G11" s="7">
         <v>1</v>
       </c>
       <c r="H11" s="21" t="s">
-        <v>53</v>
+        <v>69</v>
       </c>
       <c r="I11" s="7" t="s">
-        <v>76</v>
+        <v>56</v>
       </c>
       <c r="J11" s="22">
         <v>0</v>
       </c>
-      <c r="K11" s="6"/>
-      <c r="L11" s="7"/>
-      <c r="M11" s="7"/>
+      <c r="K11" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="L11" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="M11" s="7">
+        <v>0</v>
+      </c>
       <c r="N11" s="1"/>
     </row>
     <row r="12" ht="37.35" customHeight="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="16" t="s">
-        <v>55</v>
+        <v>73</v>
       </c>
       <c r="C12" s="15" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="D12" s="17">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E12" s="14" t="s">
-        <v>57</v>
+        <v>75</v>
       </c>
       <c r="F12" s="15" t="s">
-        <v>60</v>
+        <v>8</v>
       </c>
       <c r="G12" s="15">
         <v>1</v>
       </c>
       <c r="H12" s="16" t="s">
-        <v>59</v>
+        <v>77</v>
       </c>
       <c r="I12" s="15" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="J12" s="17">
         <v>0</v>
       </c>
-      <c r="K12" s="14"/>
-      <c r="L12" s="15"/>
-      <c r="M12" s="15"/>
+      <c r="K12" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="L12" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="M12" s="15">
+        <v>0</v>
+      </c>
       <c r="N12" s="1"/>
     </row>
     <row r="13" ht="23.85" customHeight="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="24" t="s">
-        <v>61</v>
+        <v>81</v>
       </c>
       <c r="C13" s="24"/>
       <c r="D13" s="24"/>
@@ -2308,7 +2533,7 @@
     <row r="14" ht="19.35" customHeight="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="25" t="s">
-        <v>77</v>
+        <v>92</v>
       </c>
       <c r="C14" s="25"/>
       <c r="D14" s="25"/>
@@ -2367,16 +2592,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>78</v>
+        <v>93</v>
       </c>
       <c r="B1" t="s">
-        <v>79</v>
+        <v>94</v>
       </c>
       <c r="C1" t="s">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="D1" t="s">
-        <v>81</v>
+        <v>96</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">

--- a/output.xlsx
+++ b/output.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="103">
   <si>
     <t>Qui a attrapé le plus de Cobblemons ?</t>
   </si>
@@ -31,238 +31,238 @@
     <t>11.</t>
   </si>
   <si>
+    <t>Methyril</t>
+  </si>
+  <si>
+    <t>21.</t>
+  </si>
+  <si>
+    <t>SnowGeek_</t>
+  </si>
+  <si>
+    <t>31.</t>
+  </si>
+  <si>
+    <t>PyroxX59</t>
+  </si>
+  <si>
+    <t>2.</t>
+  </si>
+  <si>
+    <t>Otachisaburi</t>
+  </si>
+  <si>
+    <t>12.</t>
+  </si>
+  <si>
+    <t>Le_willl</t>
+  </si>
+  <si>
+    <t>22.</t>
+  </si>
+  <si>
+    <t>Lookoomcitron</t>
+  </si>
+  <si>
+    <t>32.</t>
+  </si>
+  <si>
+    <t>Sky_ReyHD</t>
+  </si>
+  <si>
+    <t>3.</t>
+  </si>
+  <si>
+    <t>Banamas_</t>
+  </si>
+  <si>
+    <t>13.</t>
+  </si>
+  <si>
+    <t>Adri3n76</t>
+  </si>
+  <si>
+    <t>23.</t>
+  </si>
+  <si>
+    <t>Noiartam</t>
+  </si>
+  <si>
+    <t>33.</t>
+  </si>
+  <si>
+    <t>joueurwooki</t>
+  </si>
+  <si>
+    <t>4.</t>
+  </si>
+  <si>
+    <t>HeatleoDuster</t>
+  </si>
+  <si>
+    <t>14.</t>
+  </si>
+  <si>
     <t>Swqsh</t>
   </si>
   <si>
-    <t>21.</t>
+    <t>24.</t>
+  </si>
+  <si>
+    <t>NeoPreda</t>
+  </si>
+  <si>
+    <t>34.</t>
+  </si>
+  <si>
+    <t>Riivinho</t>
+  </si>
+  <si>
+    <t>5.</t>
+  </si>
+  <si>
+    <t>NekaiElDog</t>
+  </si>
+  <si>
+    <t>15.</t>
+  </si>
+  <si>
+    <t>Bazouho</t>
+  </si>
+  <si>
+    <t>25.</t>
   </si>
   <si>
     <t>Xtrem_lalaniix</t>
   </si>
   <si>
-    <t>31.</t>
+    <t>35.</t>
+  </si>
+  <si>
+    <t>buderacing</t>
+  </si>
+  <si>
+    <t>6.</t>
+  </si>
+  <si>
+    <t>Odhyn</t>
+  </si>
+  <si>
+    <t>16.</t>
+  </si>
+  <si>
+    <t>ashbee404</t>
+  </si>
+  <si>
+    <t>26.</t>
+  </si>
+  <si>
+    <t>AceCertix</t>
+  </si>
+  <si>
+    <t>36.</t>
+  </si>
+  <si>
+    <t>RazerHus</t>
+  </si>
+  <si>
+    <t>7.</t>
+  </si>
+  <si>
+    <t>Thomsondu45</t>
+  </si>
+  <si>
+    <t>17.</t>
+  </si>
+  <si>
+    <t>Freeze_zaeyo_</t>
+  </si>
+  <si>
+    <t>27.</t>
+  </si>
+  <si>
+    <t>Elestiano</t>
+  </si>
+  <si>
+    <t>37.</t>
+  </si>
+  <si>
+    <t>RevengeGoon</t>
+  </si>
+  <si>
+    <t>8.</t>
+  </si>
+  <si>
+    <t>Eniox_0</t>
+  </si>
+  <si>
+    <t>18.</t>
+  </si>
+  <si>
+    <t>FunBass</t>
+  </si>
+  <si>
+    <t>28.</t>
+  </si>
+  <si>
+    <t>De_Oceane</t>
+  </si>
+  <si>
+    <t>38.</t>
+  </si>
+  <si>
+    <t>oluvilis</t>
+  </si>
+  <si>
+    <t>9.</t>
+  </si>
+  <si>
+    <t>Lutjio</t>
+  </si>
+  <si>
+    <t>19.</t>
+  </si>
+  <si>
+    <t>SyKape</t>
+  </si>
+  <si>
+    <t>29.</t>
+  </si>
+  <si>
+    <t>Framex74</t>
+  </si>
+  <si>
+    <t>39.</t>
   </si>
   <si>
     <t>FirFlaSh</t>
   </si>
   <si>
-    <t>2.</t>
-  </si>
-  <si>
-    <t>NekaiElDog</t>
-  </si>
-  <si>
-    <t>12.</t>
-  </si>
-  <si>
-    <t>Thomsondu45</t>
-  </si>
-  <si>
-    <t>22.</t>
-  </si>
-  <si>
-    <t>Sky_ReyHD</t>
-  </si>
-  <si>
-    <t>32.</t>
-  </si>
-  <si>
-    <t>De_Oceane</t>
-  </si>
-  <si>
-    <t>3.</t>
-  </si>
-  <si>
-    <t>HeatleoDuster</t>
-  </si>
-  <si>
-    <t>13.</t>
-  </si>
-  <si>
-    <t>Bazouho</t>
-  </si>
-  <si>
-    <t>23.</t>
-  </si>
-  <si>
-    <t>AceCertix</t>
-  </si>
-  <si>
-    <t>33.</t>
-  </si>
-  <si>
-    <t>Arpegiuss</t>
-  </si>
-  <si>
-    <t>4.</t>
-  </si>
-  <si>
-    <t>Odhyn</t>
-  </si>
-  <si>
-    <t>14.</t>
-  </si>
-  <si>
-    <t>Banamas_</t>
-  </si>
-  <si>
-    <t>24.</t>
+    <t>10.</t>
+  </si>
+  <si>
+    <t>Azufinn</t>
+  </si>
+  <si>
+    <t>20.</t>
+  </si>
+  <si>
+    <t>Solveurk</t>
+  </si>
+  <si>
+    <t>30.</t>
   </si>
   <si>
     <t>Lenny_san</t>
   </si>
   <si>
-    <t>34.</t>
-  </si>
-  <si>
-    <t>SnowGeek_</t>
-  </si>
-  <si>
-    <t>5.</t>
-  </si>
-  <si>
-    <t>Azufinn</t>
-  </si>
-  <si>
-    <t>15.</t>
-  </si>
-  <si>
-    <t>Le_willl</t>
-  </si>
-  <si>
-    <t>25.</t>
-  </si>
-  <si>
-    <t>Solveurk</t>
-  </si>
-  <si>
-    <t>35.</t>
-  </si>
-  <si>
-    <t>Dilag</t>
-  </si>
-  <si>
-    <t>6.</t>
-  </si>
-  <si>
-    <t>Otachisaburi</t>
-  </si>
-  <si>
-    <t>16.</t>
-  </si>
-  <si>
-    <t>Methyril</t>
-  </si>
-  <si>
-    <t>26.</t>
-  </si>
-  <si>
-    <t>buderacing</t>
-  </si>
-  <si>
-    <t>36.</t>
-  </si>
-  <si>
-    <t>Balhgar</t>
-  </si>
-  <si>
-    <t>7.</t>
-  </si>
-  <si>
-    <t>Eniox_0</t>
-  </si>
-  <si>
-    <t>17.</t>
-  </si>
-  <si>
-    <t>SyKape</t>
-  </si>
-  <si>
-    <t>27.</t>
-  </si>
-  <si>
-    <t>RevengeGoon</t>
-  </si>
-  <si>
-    <t>37.</t>
-  </si>
-  <si>
-    <t>Noiartam</t>
-  </si>
-  <si>
-    <t>8.</t>
-  </si>
-  <si>
-    <t>FunBass</t>
-  </si>
-  <si>
-    <t>18.</t>
-  </si>
-  <si>
-    <t>Lutjio</t>
-  </si>
-  <si>
-    <t>28.</t>
-  </si>
-  <si>
-    <t>Freeze_zaeyo_</t>
-  </si>
-  <si>
-    <t>38.</t>
+    <t>40.</t>
   </si>
   <si>
     <t>Teubish</t>
   </si>
   <si>
-    <t>9.</t>
-  </si>
-  <si>
-    <t>ashbee404</t>
-  </si>
-  <si>
-    <t>19.</t>
-  </si>
-  <si>
-    <t>NeoPreda</t>
-  </si>
-  <si>
-    <t>29.</t>
-  </si>
-  <si>
-    <t>oluvilis</t>
-  </si>
-  <si>
-    <t>39.</t>
-  </si>
-  <si>
-    <t>Pyrocika</t>
-  </si>
-  <si>
-    <t>10.</t>
-  </si>
-  <si>
-    <t>Adri3n76</t>
-  </si>
-  <si>
-    <t>20.</t>
-  </si>
-  <si>
-    <t>Framex74</t>
-  </si>
-  <si>
-    <t>30.</t>
-  </si>
-  <si>
-    <t>Elestiano</t>
-  </si>
-  <si>
-    <t>40.</t>
-  </si>
-  <si>
-    <t>Aestoxic</t>
-  </si>
-  <si>
-    <t>Dernière update le 25.02.25 à 21:06</t>
+    <t>Dernière update le 28.02.25 à 23:47</t>
   </si>
   <si>
     <t>Most Pokemons Captured</t>
@@ -303,19 +303,34 @@
     </r>
   </si>
   <si>
+    <t>Mamazou</t>
+  </si>
+  <si>
+    <t>Arpegiuss</t>
+  </si>
+  <si>
+    <t>AlkaciD</t>
+  </si>
+  <si>
     <t>AxoliaTV</t>
   </si>
   <si>
-    <t>AlkaciD</t>
-  </si>
-  <si>
-    <t>Meryneuneu</t>
-  </si>
-  <si>
-    <t>vaaxito</t>
-  </si>
-  <si>
-    <t>Mamazou</t>
+    <t>StyKiuN</t>
+  </si>
+  <si>
+    <t>Pyrocika</t>
+  </si>
+  <si>
+    <t>aLMenzia</t>
+  </si>
+  <si>
+    <t>Dilag</t>
+  </si>
+  <si>
+    <t>Balhgar</t>
+  </si>
+  <si>
+    <t>ShinLeGoat</t>
   </si>
   <si>
     <t>Shiny Pokemons Leaderboard</t>
@@ -344,6 +359,9 @@
       </rPr>
       <t>?</t>
     </r>
+  </si>
+  <si>
+    <t>Aestoxic</t>
   </si>
   <si>
     <t>BillyHck</t>
@@ -1068,7 +1086,7 @@
         <v>2</v>
       </c>
       <c r="D3" s="5">
-        <v>541</v>
+        <v>703</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>3</v>
@@ -1077,7 +1095,7 @@
         <v>4</v>
       </c>
       <c r="G3" s="7">
-        <v>212</v>
+        <v>414</v>
       </c>
       <c r="H3" s="8" t="s">
         <v>5</v>
@@ -1086,7 +1104,7 @@
         <v>6</v>
       </c>
       <c r="J3" s="10">
-        <v>119</v>
+        <v>199</v>
       </c>
       <c r="K3" s="6" t="s">
         <v>7</v>
@@ -1095,7 +1113,7 @@
         <v>8</v>
       </c>
       <c r="M3" s="7">
-        <v>56</v>
+        <v>115</v>
       </c>
       <c r="N3" s="1"/>
     </row>
@@ -1108,7 +1126,7 @@
         <v>10</v>
       </c>
       <c r="D4" s="13">
-        <v>528</v>
+        <v>688</v>
       </c>
       <c r="E4" s="14" t="s">
         <v>11</v>
@@ -1117,7 +1135,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="15">
-        <v>205</v>
+        <v>393</v>
       </c>
       <c r="H4" s="16" t="s">
         <v>13</v>
@@ -1126,7 +1144,7 @@
         <v>14</v>
       </c>
       <c r="J4" s="17">
-        <v>108</v>
+        <v>169</v>
       </c>
       <c r="K4" s="14" t="s">
         <v>15</v>
@@ -1135,7 +1153,7 @@
         <v>16</v>
       </c>
       <c r="M4" s="15">
-        <v>48</v>
+        <v>110</v>
       </c>
       <c r="N4" s="1"/>
     </row>
@@ -1148,7 +1166,7 @@
         <v>18</v>
       </c>
       <c r="D5" s="20">
-        <v>516</v>
+        <v>605</v>
       </c>
       <c r="E5" s="6" t="s">
         <v>19</v>
@@ -1157,7 +1175,7 @@
         <v>20</v>
       </c>
       <c r="G5" s="7">
-        <v>201</v>
+        <v>375</v>
       </c>
       <c r="H5" s="21" t="s">
         <v>21</v>
@@ -1166,7 +1184,7 @@
         <v>22</v>
       </c>
       <c r="J5" s="22">
-        <v>92</v>
+        <v>162</v>
       </c>
       <c r="K5" s="6" t="s">
         <v>23</v>
@@ -1175,7 +1193,7 @@
         <v>24</v>
       </c>
       <c r="M5" s="7">
-        <v>46</v>
+        <v>91</v>
       </c>
       <c r="N5" s="1"/>
     </row>
@@ -1188,7 +1206,7 @@
         <v>26</v>
       </c>
       <c r="D6" s="17">
-        <v>402</v>
+        <v>589</v>
       </c>
       <c r="E6" s="14" t="s">
         <v>27</v>
@@ -1197,7 +1215,7 @@
         <v>28</v>
       </c>
       <c r="G6" s="15">
-        <v>196</v>
+        <v>363</v>
       </c>
       <c r="H6" s="16" t="s">
         <v>29</v>
@@ -1206,7 +1224,7 @@
         <v>30</v>
       </c>
       <c r="J6" s="17">
-        <v>84</v>
+        <v>161</v>
       </c>
       <c r="K6" s="14" t="s">
         <v>31</v>
@@ -1215,7 +1233,7 @@
         <v>32</v>
       </c>
       <c r="M6" s="15">
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="N6" s="1"/>
     </row>
@@ -1228,7 +1246,7 @@
         <v>34</v>
       </c>
       <c r="D7" s="22">
-        <v>383</v>
+        <v>584</v>
       </c>
       <c r="E7" s="6" t="s">
         <v>35</v>
@@ -1237,7 +1255,7 @@
         <v>36</v>
       </c>
       <c r="G7" s="7">
-        <v>172</v>
+        <v>338</v>
       </c>
       <c r="H7" s="21" t="s">
         <v>37</v>
@@ -1246,7 +1264,7 @@
         <v>38</v>
       </c>
       <c r="J7" s="22">
-        <v>82</v>
+        <v>153</v>
       </c>
       <c r="K7" s="6" t="s">
         <v>39</v>
@@ -1255,7 +1273,7 @@
         <v>40</v>
       </c>
       <c r="M7" s="7">
-        <v>32</v>
+        <v>88</v>
       </c>
       <c r="N7" s="1"/>
     </row>
@@ -1268,7 +1286,7 @@
         <v>42</v>
       </c>
       <c r="D8" s="17">
-        <v>346</v>
+        <v>571</v>
       </c>
       <c r="E8" s="14" t="s">
         <v>43</v>
@@ -1277,7 +1295,7 @@
         <v>44</v>
       </c>
       <c r="G8" s="15">
-        <v>162</v>
+        <v>322</v>
       </c>
       <c r="H8" s="16" t="s">
         <v>45</v>
@@ -1286,7 +1304,7 @@
         <v>46</v>
       </c>
       <c r="J8" s="17">
-        <v>76</v>
+        <v>153</v>
       </c>
       <c r="K8" s="14" t="s">
         <v>47</v>
@@ -1295,7 +1313,7 @@
         <v>48</v>
       </c>
       <c r="M8" s="15">
-        <v>31</v>
+        <v>85</v>
       </c>
       <c r="N8" s="1"/>
     </row>
@@ -1308,7 +1326,7 @@
         <v>50</v>
       </c>
       <c r="D9" s="22">
-        <v>334</v>
+        <v>543</v>
       </c>
       <c r="E9" s="6" t="s">
         <v>51</v>
@@ -1317,7 +1335,7 @@
         <v>52</v>
       </c>
       <c r="G9" s="7">
-        <v>137</v>
+        <v>254</v>
       </c>
       <c r="H9" s="21" t="s">
         <v>53</v>
@@ -1326,7 +1344,7 @@
         <v>54</v>
       </c>
       <c r="J9" s="22">
-        <v>71</v>
+        <v>136</v>
       </c>
       <c r="K9" s="6" t="s">
         <v>55</v>
@@ -1335,7 +1353,7 @@
         <v>56</v>
       </c>
       <c r="M9" s="7">
-        <v>30</v>
+        <v>73</v>
       </c>
       <c r="N9" s="1"/>
       <c r="Q9" s="23"/>
@@ -1349,7 +1367,7 @@
         <v>58</v>
       </c>
       <c r="D10" s="17">
-        <v>228</v>
+        <v>523</v>
       </c>
       <c r="E10" s="14" t="s">
         <v>59</v>
@@ -1358,7 +1376,7 @@
         <v>60</v>
       </c>
       <c r="G10" s="15">
-        <v>131</v>
+        <v>236</v>
       </c>
       <c r="H10" s="16" t="s">
         <v>61</v>
@@ -1367,7 +1385,7 @@
         <v>62</v>
       </c>
       <c r="J10" s="17">
-        <v>63</v>
+        <v>128</v>
       </c>
       <c r="K10" s="14" t="s">
         <v>63</v>
@@ -1376,7 +1394,7 @@
         <v>64</v>
       </c>
       <c r="M10" s="15">
-        <v>26</v>
+        <v>69</v>
       </c>
       <c r="N10" s="1"/>
     </row>
@@ -1389,7 +1407,7 @@
         <v>66</v>
       </c>
       <c r="D11" s="22">
-        <v>223</v>
+        <v>470</v>
       </c>
       <c r="E11" s="6" t="s">
         <v>67</v>
@@ -1398,7 +1416,7 @@
         <v>68</v>
       </c>
       <c r="G11" s="7">
-        <v>123</v>
+        <v>235</v>
       </c>
       <c r="H11" s="21" t="s">
         <v>69</v>
@@ -1407,7 +1425,7 @@
         <v>70</v>
       </c>
       <c r="J11" s="22">
-        <v>61</v>
+        <v>125</v>
       </c>
       <c r="K11" s="6" t="s">
         <v>71</v>
@@ -1416,7 +1434,7 @@
         <v>72</v>
       </c>
       <c r="M11" s="7">
-        <v>24</v>
+        <v>57</v>
       </c>
       <c r="N11" s="1"/>
     </row>
@@ -1429,7 +1447,7 @@
         <v>74</v>
       </c>
       <c r="D12" s="17">
-        <v>218</v>
+        <v>438</v>
       </c>
       <c r="E12" s="14" t="s">
         <v>75</v>
@@ -1438,7 +1456,7 @@
         <v>76</v>
       </c>
       <c r="G12" s="15">
-        <v>119</v>
+        <v>228</v>
       </c>
       <c r="H12" s="16" t="s">
         <v>77</v>
@@ -1447,7 +1465,7 @@
         <v>78</v>
       </c>
       <c r="J12" s="17">
-        <v>61</v>
+        <v>120</v>
       </c>
       <c r="K12" s="14" t="s">
         <v>79</v>
@@ -1456,7 +1474,7 @@
         <v>80</v>
       </c>
       <c r="M12" s="15">
-        <v>21</v>
+        <v>56</v>
       </c>
       <c r="N12" s="1"/>
     </row>
@@ -1594,31 +1612,31 @@
         <v>2</v>
       </c>
       <c r="D3" s="5">
-        <v>44</v>
+        <v>117</v>
       </c>
       <c r="E3" s="28" t="s">
         <v>3</v>
       </c>
       <c r="F3" s="29" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="G3" s="29">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="H3" s="30" t="s">
         <v>5</v>
       </c>
       <c r="I3" s="31" t="s">
-        <v>74</v>
+        <v>6</v>
       </c>
       <c r="J3" s="32">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K3" s="28" t="s">
         <v>7</v>
       </c>
       <c r="L3" s="29" t="s">
-        <v>30</v>
+        <v>84</v>
       </c>
       <c r="M3" s="29">
         <v>0</v>
@@ -1634,16 +1652,16 @@
         <v>10</v>
       </c>
       <c r="D4" s="13">
-        <v>35</v>
+        <v>90</v>
       </c>
       <c r="E4" s="33" t="s">
         <v>11</v>
       </c>
       <c r="F4" s="34" t="s">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="G4" s="34">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="H4" s="35" t="s">
         <v>13</v>
@@ -1652,13 +1670,13 @@
         <v>46</v>
       </c>
       <c r="J4" s="36">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K4" s="33" t="s">
         <v>15</v>
       </c>
       <c r="L4" s="34" t="s">
-        <v>56</v>
+        <v>78</v>
       </c>
       <c r="M4" s="34">
         <v>0</v>
@@ -1671,34 +1689,34 @@
         <v>17</v>
       </c>
       <c r="C5" s="19" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="D5" s="20">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="E5" s="28" t="s">
         <v>19</v>
       </c>
       <c r="F5" s="29" t="s">
-        <v>16</v>
+        <v>62</v>
       </c>
       <c r="G5" s="29">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="H5" s="37" t="s">
         <v>21</v>
       </c>
       <c r="I5" s="29" t="s">
-        <v>24</v>
+        <v>60</v>
       </c>
       <c r="J5" s="38">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K5" s="28" t="s">
         <v>23</v>
       </c>
       <c r="L5" s="29" t="s">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="M5" s="29">
         <v>0</v>
@@ -1711,34 +1729,34 @@
         <v>25</v>
       </c>
       <c r="C6" s="34" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" s="36">
         <v>34</v>
-      </c>
-      <c r="D6" s="36">
-        <v>20</v>
       </c>
       <c r="E6" s="33" t="s">
         <v>27</v>
       </c>
       <c r="F6" s="34" t="s">
-        <v>20</v>
+        <v>52</v>
       </c>
       <c r="G6" s="34">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="H6" s="35" t="s">
         <v>29</v>
       </c>
       <c r="I6" s="34" t="s">
-        <v>84</v>
+        <v>40</v>
       </c>
       <c r="J6" s="36">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K6" s="33" t="s">
         <v>31</v>
       </c>
       <c r="L6" s="34" t="s">
-        <v>76</v>
+        <v>4</v>
       </c>
       <c r="M6" s="34">
         <v>0</v>
@@ -1751,34 +1769,34 @@
         <v>33</v>
       </c>
       <c r="C7" s="29" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="D7" s="38">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="E7" s="28" t="s">
         <v>35</v>
       </c>
       <c r="F7" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="G7" s="29">
         <v>8</v>
-      </c>
-      <c r="G7" s="29">
-        <v>5</v>
       </c>
       <c r="H7" s="37" t="s">
         <v>37</v>
       </c>
       <c r="I7" s="29" t="s">
-        <v>72</v>
+        <v>12</v>
       </c>
       <c r="J7" s="38">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K7" s="28" t="s">
         <v>39</v>
       </c>
       <c r="L7" s="29" t="s">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="M7" s="29">
         <v>0</v>
@@ -1791,25 +1809,25 @@
         <v>41</v>
       </c>
       <c r="C8" s="34" t="s">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="D8" s="36">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="E8" s="33" t="s">
         <v>43</v>
       </c>
       <c r="F8" s="34" t="s">
-        <v>4</v>
+        <v>64</v>
       </c>
       <c r="G8" s="34">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H8" s="35" t="s">
         <v>45</v>
       </c>
       <c r="I8" s="34" t="s">
-        <v>36</v>
+        <v>85</v>
       </c>
       <c r="J8" s="36">
         <v>1</v>
@@ -1818,7 +1836,7 @@
         <v>47</v>
       </c>
       <c r="L8" s="34" t="s">
-        <v>40</v>
+        <v>86</v>
       </c>
       <c r="M8" s="34">
         <v>0</v>
@@ -1831,10 +1849,10 @@
         <v>49</v>
       </c>
       <c r="C9" s="29" t="s">
-        <v>26</v>
+        <v>66</v>
       </c>
       <c r="D9" s="38">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="E9" s="28" t="s">
         <v>51</v>
@@ -1843,13 +1861,13 @@
         <v>28</v>
       </c>
       <c r="G9" s="29">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H9" s="37" t="s">
         <v>53</v>
       </c>
       <c r="I9" s="29" t="s">
-        <v>22</v>
+        <v>87</v>
       </c>
       <c r="J9" s="38">
         <v>1</v>
@@ -1858,7 +1876,7 @@
         <v>55</v>
       </c>
       <c r="L9" s="29" t="s">
-        <v>38</v>
+        <v>88</v>
       </c>
       <c r="M9" s="29">
         <v>0</v>
@@ -1872,25 +1890,25 @@
         <v>57</v>
       </c>
       <c r="C10" s="34" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="D10" s="36">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="E10" s="33" t="s">
         <v>59</v>
       </c>
       <c r="F10" s="34" t="s">
-        <v>62</v>
+        <v>20</v>
       </c>
       <c r="G10" s="34">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H10" s="35" t="s">
         <v>61</v>
       </c>
       <c r="I10" s="34" t="s">
-        <v>32</v>
+        <v>89</v>
       </c>
       <c r="J10" s="36">
         <v>1</v>
@@ -1899,7 +1917,7 @@
         <v>63</v>
       </c>
       <c r="L10" s="34" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="M10" s="34">
         <v>0</v>
@@ -1912,25 +1930,25 @@
         <v>65</v>
       </c>
       <c r="C11" s="29" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="D11" s="38">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="E11" s="28" t="s">
         <v>67</v>
       </c>
       <c r="F11" s="29" t="s">
-        <v>58</v>
+        <v>36</v>
       </c>
       <c r="G11" s="29">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H11" s="37" t="s">
         <v>69</v>
       </c>
       <c r="I11" s="29" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="J11" s="38">
         <v>1</v>
@@ -1939,7 +1957,7 @@
         <v>71</v>
       </c>
       <c r="L11" s="29" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="M11" s="29">
         <v>0</v>
@@ -1952,34 +1970,34 @@
         <v>73</v>
       </c>
       <c r="C12" s="34" t="s">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="D12" s="36">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="E12" s="33" t="s">
         <v>75</v>
       </c>
       <c r="F12" s="34" t="s">
-        <v>50</v>
+        <v>72</v>
       </c>
       <c r="G12" s="34">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H12" s="35" t="s">
         <v>77</v>
       </c>
       <c r="I12" s="34" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="J12" s="36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K12" s="33" t="s">
         <v>79</v>
       </c>
       <c r="L12" s="34" t="s">
-        <v>6</v>
+        <v>93</v>
       </c>
       <c r="M12" s="34">
         <v>0</v>
@@ -2007,7 +2025,7 @@
     <row r="14" ht="19.35" customHeight="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="26"/>
       <c r="B14" s="40" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="C14" s="40"/>
       <c r="D14" s="40"/>
@@ -2096,7 +2114,7 @@
     <row r="2" ht="83.55" customHeight="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="2" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
@@ -2120,34 +2138,34 @@
         <v>2</v>
       </c>
       <c r="D3" s="5">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>3</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>22</v>
+        <v>52</v>
       </c>
       <c r="G3" s="7">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="H3" s="8" t="s">
         <v>5</v>
       </c>
       <c r="I3" s="9" t="s">
-        <v>62</v>
+        <v>20</v>
       </c>
       <c r="J3" s="10">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K3" s="6" t="s">
         <v>7</v>
       </c>
       <c r="L3" s="7" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="M3" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N3" s="1"/>
     </row>
@@ -2157,37 +2175,37 @@
         <v>9</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="D4" s="13">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="E4" s="14" t="s">
         <v>11</v>
       </c>
       <c r="F4" s="15" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="G4" s="15">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="H4" s="16" t="s">
         <v>13</v>
       </c>
       <c r="I4" s="15" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="J4" s="17">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K4" s="14" t="s">
         <v>15</v>
       </c>
       <c r="L4" s="15" t="s">
-        <v>85</v>
+        <v>24</v>
       </c>
       <c r="M4" s="15">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N4" s="1"/>
     </row>
@@ -2197,37 +2215,37 @@
         <v>17</v>
       </c>
       <c r="C5" s="19" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="D5" s="20">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="E5" s="6" t="s">
         <v>19</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>70</v>
+        <v>34</v>
       </c>
       <c r="G5" s="7">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="H5" s="21" t="s">
         <v>21</v>
       </c>
       <c r="I5" s="7" t="s">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="J5" s="22">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K5" s="6" t="s">
         <v>23</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N5" s="1"/>
     </row>
@@ -2237,37 +2255,37 @@
         <v>25</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>58</v>
+        <v>74</v>
       </c>
       <c r="D6" s="17">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="E6" s="14" t="s">
         <v>27</v>
       </c>
       <c r="F6" s="15" t="s">
-        <v>20</v>
+        <v>66</v>
       </c>
       <c r="G6" s="15">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="H6" s="16" t="s">
         <v>29</v>
       </c>
       <c r="I6" s="15" t="s">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="J6" s="17">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K6" s="14" t="s">
         <v>31</v>
       </c>
       <c r="L6" s="15" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="M6" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N6" s="1"/>
     </row>
@@ -2277,37 +2295,37 @@
         <v>33</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="D7" s="22">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="E7" s="6" t="s">
         <v>35</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="G7" s="7">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="H7" s="21" t="s">
         <v>37</v>
       </c>
       <c r="I7" s="7" t="s">
-        <v>91</v>
+        <v>14</v>
       </c>
       <c r="J7" s="22">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K7" s="6" t="s">
         <v>39</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>84</v>
+        <v>56</v>
       </c>
       <c r="M7" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N7" s="1"/>
     </row>
@@ -2317,37 +2335,37 @@
         <v>41</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="D8" s="17">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="E8" s="14" t="s">
         <v>43</v>
       </c>
       <c r="F8" s="15" t="s">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="G8" s="15">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="H8" s="16" t="s">
         <v>45</v>
       </c>
       <c r="I8" s="15" t="s">
-        <v>52</v>
+        <v>80</v>
       </c>
       <c r="J8" s="17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K8" s="14" t="s">
         <v>47</v>
       </c>
       <c r="L8" s="15" t="s">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="M8" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N8" s="1"/>
     </row>
@@ -2357,37 +2375,37 @@
         <v>49</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="D9" s="22">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="E9" s="6" t="s">
         <v>51</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>68</v>
+        <v>36</v>
       </c>
       <c r="G9" s="7">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="H9" s="21" t="s">
         <v>53</v>
       </c>
       <c r="I9" s="7" t="s">
-        <v>14</v>
+        <v>84</v>
       </c>
       <c r="J9" s="22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K9" s="6" t="s">
         <v>55</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>16</v>
+        <v>96</v>
       </c>
       <c r="M9" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N9" s="1"/>
       <c r="Q9" s="23"/>
@@ -2398,37 +2416,37 @@
         <v>57</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>66</v>
+        <v>44</v>
       </c>
       <c r="D10" s="17">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="E10" s="14" t="s">
         <v>59</v>
       </c>
       <c r="F10" s="15" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="G10" s="15">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="H10" s="16" t="s">
         <v>61</v>
       </c>
       <c r="I10" s="15" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="J10" s="17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K10" s="14" t="s">
         <v>63</v>
       </c>
       <c r="L10" s="15" t="s">
-        <v>38</v>
+        <v>97</v>
       </c>
       <c r="M10" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N10" s="1"/>
     </row>
@@ -2438,37 +2456,37 @@
         <v>65</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="D11" s="22">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="E11" s="6" t="s">
         <v>67</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>30</v>
+        <v>62</v>
       </c>
       <c r="G11" s="7">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H11" s="21" t="s">
         <v>69</v>
       </c>
       <c r="I11" s="7" t="s">
-        <v>56</v>
+        <v>30</v>
       </c>
       <c r="J11" s="22">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K11" s="6" t="s">
         <v>71</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>86</v>
+        <v>16</v>
       </c>
       <c r="M11" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N11" s="1"/>
     </row>
@@ -2478,10 +2496,10 @@
         <v>73</v>
       </c>
       <c r="C12" s="15" t="s">
-        <v>42</v>
+        <v>60</v>
       </c>
       <c r="D12" s="17">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="E12" s="14" t="s">
         <v>75</v>
@@ -2490,25 +2508,25 @@
         <v>8</v>
       </c>
       <c r="G12" s="15">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H12" s="16" t="s">
         <v>77</v>
       </c>
       <c r="I12" s="15" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="J12" s="17">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K12" s="14" t="s">
         <v>79</v>
       </c>
       <c r="L12" s="15" t="s">
-        <v>87</v>
+        <v>6</v>
       </c>
       <c r="M12" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N12" s="1"/>
     </row>
@@ -2533,7 +2551,7 @@
     <row r="14" ht="19.35" customHeight="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="25" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="C14" s="25"/>
       <c r="D14" s="25"/>
@@ -2592,16 +2610,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="B1" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="C1" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="D1" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
